--- a/1.GDD/工作進度文件.xlsx
+++ b/1.GDD/工作進度文件.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="44">
   <si>
     <t>S</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -525,6 +525,10 @@
       </rPr>
       <t>適合的音樂搜尋</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS4操作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -648,7 +652,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -672,6 +676,9 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -964,10 +971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N89"/>
+  <dimension ref="A1:N90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1265,16 +1272,16 @@
       <c r="N12" s="9"/>
     </row>
     <row r="13" spans="1:14" ht="15.75">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="6" t="s">
@@ -1321,16 +1328,16 @@
       <c r="N14" s="2"/>
     </row>
     <row r="15" spans="1:14" ht="15.75">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E15" s="6" t="s">
@@ -1443,8 +1450,8 @@
       <c r="N19" s="2"/>
     </row>
     <row r="20" spans="1:14" ht="15.75">
-      <c r="A20" s="10" t="s">
-        <v>33</v>
+      <c r="A20" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>31</v>
@@ -1469,16 +1476,16 @@
       <c r="N20" s="2"/>
     </row>
     <row r="21" spans="1:14" ht="15.75">
-      <c r="A21" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="4" t="s">
+      <c r="A21" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E21" s="6" t="s">
@@ -1495,16 +1502,16 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:14" ht="15.75">
-      <c r="A22" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="11" t="s">
+      <c r="A22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E22" s="6" t="s">
@@ -1521,19 +1528,21 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:14" ht="15.75">
-      <c r="A23" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="4" t="s">
+      <c r="A23" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="6"/>
+      <c r="C23" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -1546,13 +1555,13 @@
     </row>
     <row r="24" spans="1:14" ht="15.75">
       <c r="A24" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>1</v>
@@ -1570,7 +1579,7 @@
     </row>
     <row r="25" spans="1:14" ht="15.75">
       <c r="A25" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>17</v>
@@ -1592,11 +1601,19 @@
       <c r="M25" s="4"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="5"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="5"/>
+    <row r="26" spans="1:14" ht="15.75">
+      <c r="A26" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="E26" s="6"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -1736,13 +1753,28 @@
       <c r="M34" s="4"/>
       <c r="N34" s="2"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1"/>
-    <row r="44" spans="1:14" ht="15" customHeight="1"/>
-    <row r="47" spans="1:14" ht="15" customHeight="1"/>
-    <row r="50" ht="15" customHeight="1"/>
-    <row r="54" ht="15" customHeight="1"/>
-    <row r="59" ht="15" customHeight="1"/>
-    <row r="63" ht="15" customHeight="1"/>
+    <row r="35" spans="1:14">
+      <c r="A35" s="5"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="2"/>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="45" spans="1:14" ht="15" customHeight="1"/>
+    <row r="48" spans="1:14" ht="15" customHeight="1"/>
+    <row r="51" ht="15" customHeight="1"/>
+    <row r="55" ht="15" customHeight="1"/>
+    <row r="60" ht="15" customHeight="1"/>
     <row r="64" ht="15" customHeight="1"/>
     <row r="65" ht="15" customHeight="1"/>
     <row r="66" ht="15" customHeight="1"/>
@@ -1754,8 +1786,9 @@
     <row r="72" ht="15" customHeight="1"/>
     <row r="73" ht="15" customHeight="1"/>
     <row r="74" ht="15" customHeight="1"/>
-    <row r="76" ht="15" customHeight="1"/>
-    <row r="89" ht="15" customHeight="1"/>
+    <row r="75" ht="15" customHeight="1"/>
+    <row r="77" ht="15" customHeight="1"/>
+    <row r="90" ht="15" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1.GDD/工作進度文件.xlsx
+++ b/1.GDD/工作進度文件.xlsx
@@ -565,7 +565,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -593,6 +593,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,7 +658,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -679,6 +685,12 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -974,7 +986,7 @@
   <dimension ref="A1:N90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1300,16 +1312,16 @@
       <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:14" ht="15.75">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="13" t="s">
         <v>1</v>
       </c>
       <c r="E14" s="6" t="s">
@@ -1398,16 +1410,16 @@
       <c r="N17" s="9"/>
     </row>
     <row r="18" spans="1:14" ht="15.75">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E18" s="6" t="s">

--- a/1.GDD/工作進度文件.xlsx
+++ b/1.GDD/工作進度文件.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="54">
   <si>
     <t>S</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,73 +149,288 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
+      <t>佩君</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>請確認一下一張圖需要花多少時間</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>詠翔</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>睿庭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>詠翔</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>後續玩法構思</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>試開場景需求</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>詠翔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>睿庭</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>試開關卡設計</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>關卡大小討論</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>曉芸</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>睿庭</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>簡易</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>AI</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盡可能有點好笑或是特色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史萊姆相關背景設定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>環保議題的結合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>適合的音樂搜尋</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分裂的動畫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡的動畫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4人同樂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蹺蹺板機關</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巡邏機關</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑動地板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鏡頭外死亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鏡頭跟隨最大隻的玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
       <t>場景試畫</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MingLiU"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>佩君</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MingLiU"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>請確認一下一張圖需要花多少時間</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MingLiU"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>吃人變大的公式</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MingLiU"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>詠翔</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MingLiU"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>睿庭</t>
-    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -223,64 +438,30 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MingLiU"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>詠翔</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>限期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12/15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MingLiU"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>後續玩法構思</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MingLiU"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>試開場景需求</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MingLiU"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>詠翔</t>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>冰島</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>浮冰</t>
     </r>
     <r>
       <rPr>
@@ -289,147 +470,46 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MingLiU"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>睿庭</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MingLiU"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>試開關卡設計</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MingLiU"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>關卡大小討論</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MingLiU"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>消化的動畫</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MingLiU"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>曉芸</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MingLiU"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>長大的動畫</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MingLiU"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>穿著生化衣的人類</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MingLiU"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>大哥史萊姆</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MingLiU"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>單機多人遊玩</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MingLiU"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>睿庭</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MingLiU"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>簡易</t>
+      <t>x2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>冰塊地面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>冰島關卡編輯</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>簡單</t>
     </r>
     <r>
       <rPr>
@@ -440,95 +520,121 @@
       </rPr>
       <t>AI</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MingLiU"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>終點機制</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MingLiU"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>長大機制</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MingLiU"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>生怪機制</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MingLiU"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>時間限制</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盡可能有點好笑或是特色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>史萊姆相關背景設定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>環保議題的結合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12/21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MingLiU"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>適合的音樂搜尋</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PS4操作</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>設計</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>小人動作構思</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>爆漿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>??</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>踩了會碎的冰</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>小人動作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>未開</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>時間限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>長大機制(吃1隻就長大)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觸發機關</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重生功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -536,7 +642,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -564,8 +670,15 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -587,18 +700,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFAD6D6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,7 +759,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -677,20 +778,11 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -983,10 +1075,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N90"/>
+  <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1013,7 +1105,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
@@ -1035,7 +1127,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>1</v>
@@ -1055,13 +1147,13 @@
     </row>
     <row r="3" spans="1:14" ht="15.75">
       <c r="A3" s="5" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>1</v>
@@ -1097,10 +1189,10 @@
     </row>
     <row r="5" spans="1:14" ht="15.75">
       <c r="A5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
@@ -1109,10 +1201,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -1123,37 +1215,47 @@
       <c r="M5" s="4"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" s="8" customFormat="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="9"/>
+    <row r="6" spans="1:14" ht="15.75">
+      <c r="A6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14" ht="15.75">
       <c r="A7" s="5" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -1165,45 +1267,37 @@
       <c r="M7" s="4"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75">
-      <c r="A8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>1</v>
-      </c>
+    <row r="8" spans="1:14" s="8" customFormat="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="2"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="9"/>
     </row>
     <row r="9" spans="1:14" ht="15.75">
       <c r="A9" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -1217,19 +1311,19 @@
     </row>
     <row r="10" spans="1:14" ht="15.75">
       <c r="A10" s="5" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -1243,19 +1337,19 @@
     </row>
     <row r="11" spans="1:14" ht="15.75">
       <c r="A11" s="5" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -1267,41 +1361,49 @@
       <c r="M11" s="4"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" s="8" customFormat="1">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="9"/>
+    <row r="12" spans="1:14" ht="15.75">
+      <c r="A12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="2"/>
     </row>
     <row r="13" spans="1:14" ht="15.75">
-      <c r="A13" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>1</v>
+      <c r="A13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -1312,24 +1414,22 @@
       <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:14" ht="15.75">
-      <c r="A14" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>1</v>
+      <c r="A14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -1340,24 +1440,22 @@
       <c r="N14" s="2"/>
     </row>
     <row r="15" spans="1:14" ht="15.75">
-      <c r="A15" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>1</v>
+      <c r="A15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -1367,65 +1465,69 @@
       <c r="M15" s="4"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75">
-      <c r="A16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>1</v>
-      </c>
+    <row r="16" spans="1:14" s="8" customFormat="1">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="1:14" s="8" customFormat="1">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="9"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="1:14" ht="15.75">
+      <c r="A17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="2"/>
     </row>
     <row r="18" spans="1:14" ht="15.75">
-      <c r="A18" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="11" t="s">
+      <c r="A18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>1</v>
-      </c>
       <c r="E18" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -1437,19 +1539,19 @@
     </row>
     <row r="19" spans="1:14" ht="15.75">
       <c r="A19" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>1</v>
-      </c>
       <c r="E19" s="6" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1462,22 +1564,24 @@
       <c r="N19" s="2"/>
     </row>
     <row r="20" spans="1:14" ht="15.75">
-      <c r="A20" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="11" t="s">
+      <c r="A20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>1</v>
-      </c>
       <c r="E20" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -1487,47 +1591,37 @@
       <c r="M20" s="4"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75">
-      <c r="A21" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="2"/>
+    <row r="21" spans="1:14" s="8" customFormat="1">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="9"/>
     </row>
     <row r="22" spans="1:14" ht="15.75">
       <c r="A22" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1540,20 +1634,20 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:14" ht="15.75">
-      <c r="A23" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="11" t="s">
+      <c r="A23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -1570,15 +1664,17 @@
         <v>36</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" s="6"/>
+      <c r="E24" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -1591,18 +1687,20 @@
     </row>
     <row r="25" spans="1:14" ht="15.75">
       <c r="A25" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -1614,19 +1712,21 @@
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:14" ht="15.75">
-      <c r="A26" s="5" t="s">
-        <v>39</v>
+      <c r="A26" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E26" s="6"/>
+      <c r="E26" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -1637,12 +1737,22 @@
       <c r="M26" s="4"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="5"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="6"/>
+    <row r="27" spans="1:14" ht="15.75">
+      <c r="A27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -1653,12 +1763,22 @@
       <c r="M27" s="4"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="5"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="6"/>
+    <row r="28" spans="1:14" ht="15.75">
+      <c r="A28" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -1669,12 +1789,22 @@
       <c r="M28" s="4"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="5"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="6"/>
+    <row r="29" spans="1:14" ht="15.75">
+      <c r="A29" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -1685,12 +1815,22 @@
       <c r="M29" s="4"/>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="5"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="6"/>
+    <row r="30" spans="1:14" ht="15.75">
+      <c r="A30" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -1701,12 +1841,22 @@
       <c r="M30" s="4"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="5"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="6"/>
+    <row r="31" spans="1:14" ht="15.75">
+      <c r="A31" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -1717,11 +1867,19 @@
       <c r="M31" s="4"/>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="5"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="5"/>
+    <row r="32" spans="1:14" ht="15.75">
+      <c r="A32" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="E32" s="6"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -1733,11 +1891,19 @@
       <c r="M32" s="4"/>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="5"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="5"/>
+    <row r="33" spans="1:14" ht="15.75">
+      <c r="A33" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="E33" s="6"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -1749,11 +1915,19 @@
       <c r="M33" s="4"/>
       <c r="N33" s="2"/>
     </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="5"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="5"/>
+    <row r="34" spans="1:14" ht="15.75">
+      <c r="A34" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="E34" s="6"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -1781,26 +1955,154 @@
       <c r="M35" s="4"/>
       <c r="N35" s="2"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1"/>
-    <row r="45" spans="1:14" ht="15" customHeight="1"/>
-    <row r="48" spans="1:14" ht="15" customHeight="1"/>
-    <row r="51" ht="15" customHeight="1"/>
-    <row r="55" ht="15" customHeight="1"/>
-    <row r="60" ht="15" customHeight="1"/>
-    <row r="64" ht="15" customHeight="1"/>
-    <row r="65" ht="15" customHeight="1"/>
-    <row r="66" ht="15" customHeight="1"/>
-    <row r="67" ht="15" customHeight="1"/>
+    <row r="36" spans="1:14">
+      <c r="A36" s="5"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="2"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="5"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="2"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="5"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="5"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="2"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="5"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="2"/>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="5"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="2"/>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="5"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="2"/>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="5"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="2"/>
+    </row>
+    <row r="44" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15" customHeight="1"/>
+    <row r="56" ht="15" customHeight="1"/>
+    <row r="59" ht="15" customHeight="1"/>
+    <row r="63" ht="15" customHeight="1"/>
     <row r="68" ht="15" customHeight="1"/>
-    <row r="69" ht="15" customHeight="1"/>
-    <row r="70" ht="15" customHeight="1"/>
-    <row r="71" ht="15" customHeight="1"/>
     <row r="72" ht="15" customHeight="1"/>
     <row r="73" ht="15" customHeight="1"/>
     <row r="74" ht="15" customHeight="1"/>
     <row r="75" ht="15" customHeight="1"/>
+    <row r="76" ht="15" customHeight="1"/>
     <row r="77" ht="15" customHeight="1"/>
-    <row r="90" ht="15" customHeight="1"/>
+    <row r="78" ht="15" customHeight="1"/>
+    <row r="79" ht="15" customHeight="1"/>
+    <row r="80" ht="15" customHeight="1"/>
+    <row r="81" ht="15" customHeight="1"/>
+    <row r="82" ht="15" customHeight="1"/>
+    <row r="83" ht="15" customHeight="1"/>
+    <row r="85" ht="15" customHeight="1"/>
+    <row r="98" ht="15" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1.GDD/工作進度文件.xlsx
+++ b/1.GDD/工作進度文件.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="59">
   <si>
     <t>S</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -635,6 +635,55 @@
   </si>
   <si>
     <t>重生功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>吃披薩和交換禮物ヽ（・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>∀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>・）ノ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300左右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7:00-地點未定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例行開會</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -642,7 +691,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -674,6 +723,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="MS Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
       <family val="3"/>
       <charset val="136"/>
     </font>
@@ -759,7 +822,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -782,6 +845,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1075,15 +1144,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N98"/>
+  <dimension ref="A1:N100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="35.5703125" style="3" customWidth="1"/>
     <col min="2" max="2" width="17.140625" style="3" customWidth="1"/>
     <col min="3" max="4" width="8.5703125" style="3" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" style="8" customWidth="1"/>
@@ -1120,21 +1189,21 @@
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="15.75">
-      <c r="A2" s="5" t="s">
-        <v>9</v>
+      <c r="A2" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="E2" s="6"/>
-      <c r="F2" s="4" t="s">
-        <v>11</v>
+      <c r="F2" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -1146,21 +1215,21 @@
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:14" ht="15.75">
-      <c r="A3" s="5" t="s">
-        <v>29</v>
+      <c r="A3" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E3" s="6"/>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
+      <c r="F3" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -1171,40 +1240,48 @@
       <c r="M3" s="4"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" s="8" customFormat="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="6"/>
+    <row r="4" spans="1:14" ht="15.75">
+      <c r="A4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="9"/>
+      <c r="F4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" ht="15.75">
       <c r="A5" s="5" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="E5" s="6"/>
       <c r="F5" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -1215,35 +1292,25 @@
       <c r="M5" s="4"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" ht="15.75">
-      <c r="A6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="2"/>
+    <row r="6" spans="1:14" s="8" customFormat="1">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="9"/>
     </row>
     <row r="7" spans="1:14" ht="15.75">
       <c r="A7" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>12</v>
@@ -1252,12 +1319,14 @@
         <v>3</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -1267,28 +1336,38 @@
       <c r="M7" s="4"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" s="8" customFormat="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="9"/>
+    <row r="8" spans="1:14" ht="15.75">
+      <c r="A8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:14" ht="15.75">
       <c r="A9" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>3</v>
@@ -1309,38 +1388,28 @@
       <c r="M9" s="4"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75">
-      <c r="A10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="2"/>
+    <row r="10" spans="1:14" s="8" customFormat="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="9"/>
     </row>
     <row r="11" spans="1:14" ht="15.75">
       <c r="A11" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>3</v>
@@ -1349,7 +1418,7 @@
         <v>31</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -1363,13 +1432,13 @@
     </row>
     <row r="12" spans="1:14" ht="15.75">
       <c r="A12" s="5" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>31</v>
@@ -1389,19 +1458,19 @@
     </row>
     <row r="13" spans="1:14" ht="15.75">
       <c r="A13" s="5" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>31</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -1415,13 +1484,13 @@
     </row>
     <row r="14" spans="1:14" ht="15.75">
       <c r="A14" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>31</v>
@@ -1441,7 +1510,7 @@
     </row>
     <row r="15" spans="1:14" ht="15.75">
       <c r="A15" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>19</v>
@@ -1465,31 +1534,41 @@
       <c r="M15" s="4"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" s="8" customFormat="1">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="9"/>
+    <row r="16" spans="1:14" ht="15.75">
+      <c r="A16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="2"/>
     </row>
     <row r="17" spans="1:14" ht="15.75">
       <c r="A17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>3</v>
+        <v>21</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>31</v>
@@ -1497,9 +1576,7 @@
       <c r="E17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -1509,37 +1586,25 @@
       <c r="M17" s="4"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75">
-      <c r="A18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="2"/>
+    <row r="18" spans="1:14" s="8" customFormat="1">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="9"/>
     </row>
     <row r="19" spans="1:14" ht="15.75">
       <c r="A19" s="5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>22</v>
@@ -1553,7 +1618,9 @@
       <c r="E19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
@@ -1565,7 +1632,7 @@
     </row>
     <row r="20" spans="1:14" ht="15.75">
       <c r="A20" s="5" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>22</v>
@@ -1580,7 +1647,7 @@
         <v>30</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -1591,30 +1658,40 @@
       <c r="M20" s="4"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" s="8" customFormat="1">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="9"/>
+    <row r="21" spans="1:14" ht="15.75">
+      <c r="A21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:14" ht="15.75">
       <c r="A22" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -1623,7 +1700,9 @@
       <c r="E22" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -1633,35 +1712,25 @@
       <c r="M22" s="4"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75">
-      <c r="A23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="2"/>
+    <row r="23" spans="1:14" s="8" customFormat="1">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="9"/>
     </row>
     <row r="24" spans="1:14" ht="15.75">
       <c r="A24" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>23</v>
@@ -1687,7 +1756,7 @@
     </row>
     <row r="25" spans="1:14" ht="15.75">
       <c r="A25" s="5" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>23</v>
@@ -1696,7 +1765,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>30</v>
@@ -1712,8 +1781,8 @@
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:14" ht="15.75">
-      <c r="A26" s="10" t="s">
-        <v>51</v>
+      <c r="A26" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>23</v>
@@ -1722,7 +1791,7 @@
         <v>3</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>30</v>
@@ -1739,7 +1808,7 @@
     </row>
     <row r="27" spans="1:14" ht="15.75">
       <c r="A27" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>23</v>
@@ -1764,8 +1833,8 @@
       <c r="N27" s="2"/>
     </row>
     <row r="28" spans="1:14" ht="15.75">
-      <c r="A28" s="5" t="s">
-        <v>39</v>
+      <c r="A28" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>23</v>
@@ -1774,7 +1843,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>30</v>
@@ -1790,8 +1859,8 @@
       <c r="N28" s="2"/>
     </row>
     <row r="29" spans="1:14" ht="15.75">
-      <c r="A29" s="11" t="s">
-        <v>53</v>
+      <c r="A29" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>23</v>
@@ -1817,7 +1886,7 @@
     </row>
     <row r="30" spans="1:14" ht="15.75">
       <c r="A30" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>23</v>
@@ -1843,13 +1912,13 @@
     </row>
     <row r="31" spans="1:14" ht="15.75">
       <c r="A31" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>31</v>
@@ -1868,19 +1937,21 @@
       <c r="N31" s="2"/>
     </row>
     <row r="32" spans="1:14" ht="15.75">
-      <c r="A32" s="10" t="s">
-        <v>50</v>
+      <c r="A32" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E32" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -1892,19 +1963,21 @@
       <c r="N32" s="2"/>
     </row>
     <row r="33" spans="1:14" ht="15.75">
-      <c r="A33" s="5" t="s">
-        <v>26</v>
+      <c r="A33" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E33" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -1916,14 +1989,14 @@
       <c r="N33" s="2"/>
     </row>
     <row r="34" spans="1:14" ht="15.75">
-      <c r="A34" s="5" t="s">
-        <v>27</v>
+      <c r="A34" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>1</v>
@@ -1939,11 +2012,19 @@
       <c r="M34" s="4"/>
       <c r="N34" s="2"/>
     </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="5"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="5"/>
+    <row r="35" spans="1:14" ht="15.75">
+      <c r="A35" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="E35" s="6"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -1955,11 +2036,19 @@
       <c r="M35" s="4"/>
       <c r="N35" s="2"/>
     </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="5"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="5"/>
+    <row r="36" spans="1:14" ht="15.75">
+      <c r="A36" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="E36" s="6"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -2083,14 +2172,44 @@
       <c r="M43" s="4"/>
       <c r="N43" s="2"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15" customHeight="1"/>
-    <row r="56" ht="15" customHeight="1"/>
-    <row r="59" ht="15" customHeight="1"/>
-    <row r="63" ht="15" customHeight="1"/>
-    <row r="68" ht="15" customHeight="1"/>
-    <row r="72" ht="15" customHeight="1"/>
-    <row r="73" ht="15" customHeight="1"/>
+    <row r="44" spans="1:14">
+      <c r="A44" s="5"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="2"/>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="5"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="2"/>
+    </row>
+    <row r="46" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15" customHeight="1"/>
+    <row r="58" ht="15" customHeight="1"/>
+    <row r="61" ht="15" customHeight="1"/>
+    <row r="65" ht="15" customHeight="1"/>
+    <row r="70" ht="15" customHeight="1"/>
     <row r="74" ht="15" customHeight="1"/>
     <row r="75" ht="15" customHeight="1"/>
     <row r="76" ht="15" customHeight="1"/>
@@ -2101,8 +2220,10 @@
     <row r="81" ht="15" customHeight="1"/>
     <row r="82" ht="15" customHeight="1"/>
     <row r="83" ht="15" customHeight="1"/>
+    <row r="84" ht="15" customHeight="1"/>
     <row r="85" ht="15" customHeight="1"/>
-    <row r="98" ht="15" customHeight="1"/>
+    <row r="87" ht="15" customHeight="1"/>
+    <row r="100" ht="15" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1.GDD/工作進度文件.xlsx
+++ b/1.GDD/工作進度文件.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="55">
   <si>
     <t>S</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,19 +149,6 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>佩君</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MingLiU"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
       <t>請確認一下一張圖需要花多少時間</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -377,10 +364,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12/28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12/22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -393,10 +376,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12/24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4人同樂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -638,52 +617,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12/25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MingLiU"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>吃披薩和交換禮物ヽ（・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>∀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MingLiU"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>・）ノ</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300左右</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>7:00-地點未定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>例行開會</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珮君</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -691,7 +637,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -726,22 +672,8 @@
       <family val="3"/>
       <charset val="136"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="MS Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-      <charset val="136"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -763,6 +695,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFAD6D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,7 +760,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -850,9 +788,14 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1144,10 +1087,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N100"/>
+  <dimension ref="A1:N99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1174,7 +1117,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
@@ -1189,8 +1132,8 @@
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="15.75">
-      <c r="A2" s="13" t="s">
-        <v>55</v>
+      <c r="A2" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
@@ -1199,11 +1142,11 @@
         <v>0</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -1215,21 +1158,19 @@
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:14" ht="15.75">
-      <c r="A3" s="11" t="s">
-        <v>58</v>
+      <c r="A3" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>30</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D3" s="5"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="12" t="s">
-        <v>57</v>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -1242,17 +1183,15 @@
     </row>
     <row r="4" spans="1:14" ht="15.75">
       <c r="A4" s="5" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>1</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D4" s="5"/>
       <c r="E4" s="6"/>
       <c r="F4" s="4" t="s">
         <v>11</v>
@@ -1266,67 +1205,67 @@
       <c r="M4" s="4"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75">
-      <c r="A5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="5" t="s">
+    <row r="5" spans="1:14" s="8" customFormat="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.75">
+      <c r="A6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" s="8" customFormat="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="9"/>
+      <c r="E6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14" ht="15.75">
       <c r="A7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
+        <v>39</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -1338,19 +1277,19 @@
     </row>
     <row r="8" spans="1:14" ht="15.75">
       <c r="A8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
+        <v>40</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -1362,63 +1301,63 @@
       <c r="M8" s="4"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75">
-      <c r="A9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4" t="s">
+    <row r="9" spans="1:14" s="8" customFormat="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="9"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.75">
+      <c r="A10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" s="8" customFormat="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="9"/>
+      <c r="D10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="2"/>
     </row>
     <row r="11" spans="1:14" ht="15.75">
       <c r="A11" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -1432,19 +1371,19 @@
     </row>
     <row r="12" spans="1:14" ht="15.75">
       <c r="A12" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -1458,19 +1397,19 @@
     </row>
     <row r="13" spans="1:14" ht="15.75">
       <c r="A13" s="5" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -1487,16 +1426,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -1510,19 +1449,19 @@
     </row>
     <row r="15" spans="1:14" ht="15.75">
       <c r="A15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -1539,16 +1478,16 @@
         <v>20</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -1560,66 +1499,68 @@
       <c r="M16" s="4"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:14" s="8" customFormat="1">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="9"/>
+    </row>
+    <row r="18" spans="1:14" ht="15.75">
+      <c r="A18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="1:14" s="8" customFormat="1">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="9"/>
+      <c r="C18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="2"/>
     </row>
     <row r="19" spans="1:14" ht="15.75">
       <c r="A19" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -1632,23 +1573,21 @@
     </row>
     <row r="20" spans="1:14" ht="15.75">
       <c r="A20" s="5" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>47</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -1660,21 +1599,23 @@
     </row>
     <row r="21" spans="1:14" ht="15.75">
       <c r="A21" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -1684,65 +1625,63 @@
       <c r="M21" s="4"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75">
-      <c r="A22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="5" t="s">
+    <row r="22" spans="1:14" s="8" customFormat="1">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="9"/>
+    </row>
+    <row r="23" spans="1:14" s="16" customFormat="1" ht="15.75">
+      <c r="A23" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C23" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="2"/>
-    </row>
-    <row r="23" spans="1:14" s="8" customFormat="1">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="9"/>
+      <c r="D23" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="15"/>
     </row>
     <row r="24" spans="1:14" ht="15.75">
       <c r="A24" s="5" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -1756,19 +1695,19 @@
     </row>
     <row r="25" spans="1:14" ht="15.75">
       <c r="A25" s="5" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -1780,47 +1719,47 @@
       <c r="M25" s="4"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75">
-      <c r="A26" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="4" t="s">
+    <row r="26" spans="1:14" s="16" customFormat="1" ht="15.75">
+      <c r="A26" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="2"/>
+      <c r="D26" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="15"/>
     </row>
     <row r="27" spans="1:14" ht="15.75">
-      <c r="A27" s="5" t="s">
-        <v>37</v>
+      <c r="A27" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -1833,20 +1772,20 @@
       <c r="N27" s="2"/>
     </row>
     <row r="28" spans="1:14" ht="15.75">
-      <c r="A28" s="10" t="s">
-        <v>51</v>
+      <c r="A28" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -1860,19 +1799,19 @@
     </row>
     <row r="29" spans="1:14" ht="15.75">
       <c r="A29" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -1885,20 +1824,20 @@
       <c r="N29" s="2"/>
     </row>
     <row r="30" spans="1:14" ht="15.75">
-      <c r="A30" s="5" t="s">
-        <v>39</v>
+      <c r="A30" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -1911,20 +1850,20 @@
       <c r="N30" s="2"/>
     </row>
     <row r="31" spans="1:14" ht="15.75">
-      <c r="A31" s="11" t="s">
-        <v>53</v>
+      <c r="A31" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -1937,20 +1876,20 @@
       <c r="N31" s="2"/>
     </row>
     <row r="32" spans="1:14" ht="15.75">
-      <c r="A32" s="5" t="s">
-        <v>40</v>
+      <c r="A32" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -1963,21 +1902,19 @@
       <c r="N32" s="2"/>
     </row>
     <row r="33" spans="1:14" ht="15.75">
-      <c r="A33" s="11" t="s">
-        <v>52</v>
+      <c r="A33" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>30</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E33" s="6"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -1989,14 +1926,14 @@
       <c r="N33" s="2"/>
     </row>
     <row r="34" spans="1:14" ht="15.75">
-      <c r="A34" s="10" t="s">
-        <v>50</v>
+      <c r="A34" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>1</v>
@@ -2017,10 +1954,10 @@
         <v>26</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>1</v>
@@ -2036,19 +1973,11 @@
       <c r="M35" s="4"/>
       <c r="N35" s="2"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75">
-      <c r="A36" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>1</v>
-      </c>
+    <row r="36" spans="1:14">
+      <c r="A36" s="5"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="5"/>
       <c r="E36" s="6"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -2188,28 +2117,13 @@
       <c r="M44" s="4"/>
       <c r="N44" s="2"/>
     </row>
-    <row r="45" spans="1:14">
-      <c r="A45" s="5"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="2"/>
-    </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15" customHeight="1"/>
-    <row r="58" ht="15" customHeight="1"/>
-    <row r="61" ht="15" customHeight="1"/>
-    <row r="65" ht="15" customHeight="1"/>
-    <row r="70" ht="15" customHeight="1"/>
+    <row r="45" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15" customHeight="1"/>
+    <row r="57" ht="15" customHeight="1"/>
+    <row r="60" ht="15" customHeight="1"/>
+    <row r="64" ht="15" customHeight="1"/>
+    <row r="69" ht="15" customHeight="1"/>
+    <row r="73" ht="15" customHeight="1"/>
     <row r="74" ht="15" customHeight="1"/>
     <row r="75" ht="15" customHeight="1"/>
     <row r="76" ht="15" customHeight="1"/>
@@ -2221,9 +2135,8 @@
     <row r="82" ht="15" customHeight="1"/>
     <row r="83" ht="15" customHeight="1"/>
     <row r="84" ht="15" customHeight="1"/>
-    <row r="85" ht="15" customHeight="1"/>
-    <row r="87" ht="15" customHeight="1"/>
-    <row r="100" ht="15" customHeight="1"/>
+    <row r="86" ht="15" customHeight="1"/>
+    <row r="99" ht="15" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1.GDD/工作進度文件.xlsx
+++ b/1.GDD/工作進度文件.xlsx
@@ -1,13 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E95D625B-EECA-4A52-B0D1-1E99A7FA0B80}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="會議文件" sheetId="1" r:id="rId1"/>
+    <sheet name="專案時間表" sheetId="3" r:id="rId1"/>
+    <sheet name="會議文件" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="137">
   <si>
     <t>S</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -630,6 +632,858 @@
   </si>
   <si>
     <t>珮君</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睿庭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6/15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>關卡結構化討論</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6/30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始音效完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>類型</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>企劃</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>主角成長討論</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>專案</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>遊戲名稱討論</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公司</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公司名稱討論</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公司理念討論</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>美術</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>主角設計完成</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>珮君</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>曉芸</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>鏡頭初步討論</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>鏡頭功能討論</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>音樂</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>初始音效討論</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>目標客群分析</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>鏡頭初步需求</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>美術規格定案</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公司募資、補助討論</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>主角基本動作完成</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>程式</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>關卡結構化工具</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>關卡結構化完成</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>體重計細節完成</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>AI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>系統設計</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>測試內容討論</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公司創立等討論</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>鏡頭初步完成</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>睿庭</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>企劃劇情</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>企劃主系統、主角定案</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>AI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>系統完成</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>首波測試</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>優化方向討論</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>支線系統討論</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>初始音樂討論</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>線上實作討論</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>線上實作完成</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6/7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>第一關需求發出</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>UI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>討論</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>第二關需求發出</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>特效初步討論</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>第一關美術完成</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>鏡頭功能完成</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>鏡頭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>UI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>完成</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>第一關編輯完成</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>強制休息</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>全部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>坤信</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>第二關美術完成</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效初步完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效功能完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>負責人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>體重計完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>體重計討論</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效功能完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steam研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steam討論</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用戶導向優化討論</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宣傳方向討論</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基礎引擎、編輯器優化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角操作優化測試</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角操作優化完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>場景規格討論</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>場景依規格調整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>珮君</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t/>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -637,7 +1491,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -672,8 +1526,15 @@
       <family val="3"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -704,8 +1565,62 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEDD5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB9D9A3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFBBEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA3A3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAECAF4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF19F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF19A65"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -756,11 +1671,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -796,6 +1748,67 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -804,13 +1817,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFAD6D6"/>
-      <color rgb="FFFFCCCC"/>
-      <color rgb="FFF8F8F8"/>
-      <color rgb="FFFFFBE1"/>
       <color rgb="FFFFF2E1"/>
-      <color rgb="FFFFE3BD"/>
-      <color rgb="FFFFFFCC"/>
+      <color rgb="FFF19A65"/>
+      <color rgb="FFFFF19F"/>
+      <color rgb="FFFFEE85"/>
+      <color rgb="FFF2F29A"/>
+      <color rgb="FFAECAF4"/>
+      <color rgb="FFFFA3A3"/>
+      <color rgb="FFEFBBEF"/>
+      <color rgb="FFB9D9A3"/>
+      <color rgb="FF99FF99"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1086,11 +2102,1198 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB576C66-0AB2-4DF5-8F71-D408CB53D31F}">
+  <dimension ref="A1:N153"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="21" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="30" customFormat="1" ht="15.75">
+      <c r="A1" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="35" customFormat="1">
+      <c r="A2" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="34"/>
+    </row>
+    <row r="3" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A3" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A4" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A5" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A6" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A7" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="35" customFormat="1">
+      <c r="A8" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="34"/>
+    </row>
+    <row r="9" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A9" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="19"/>
+    </row>
+    <row r="10" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A10" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="19"/>
+    </row>
+    <row r="11" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A11" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="19"/>
+    </row>
+    <row r="12" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A12" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="19"/>
+    </row>
+    <row r="13" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A13" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="19"/>
+    </row>
+    <row r="14" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A14" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="19"/>
+    </row>
+    <row r="15" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A15" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="19"/>
+    </row>
+    <row r="16" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A16" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="19"/>
+    </row>
+    <row r="17" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A17" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="19"/>
+    </row>
+    <row r="18" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A18" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" s="19"/>
+    </row>
+    <row r="19" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A19" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="19"/>
+    </row>
+    <row r="20" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A20" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="19"/>
+    </row>
+    <row r="21" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A21" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="19"/>
+    </row>
+    <row r="22" spans="1:14" s="35" customFormat="1">
+      <c r="A22" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="34"/>
+    </row>
+    <row r="23" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A23" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="19"/>
+    </row>
+    <row r="24" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A24" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="19"/>
+    </row>
+    <row r="25" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A25" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="19"/>
+    </row>
+    <row r="26" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A26" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="19"/>
+    </row>
+    <row r="27" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A27" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="19"/>
+    </row>
+    <row r="28" spans="1:14" s="35" customFormat="1">
+      <c r="A28" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="34"/>
+    </row>
+    <row r="29" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A29" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="19"/>
+    </row>
+    <row r="30" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A30" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="19"/>
+    </row>
+    <row r="31" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A31" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="19"/>
+    </row>
+    <row r="32" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A32" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="19"/>
+    </row>
+    <row r="33" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A33" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="19"/>
+    </row>
+    <row r="34" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A34" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="19"/>
+    </row>
+    <row r="35" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A35" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="19"/>
+    </row>
+    <row r="36" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A36" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="19"/>
+    </row>
+    <row r="37" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A37" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="19"/>
+    </row>
+    <row r="38" spans="1:14" s="35" customFormat="1">
+      <c r="A38" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="34"/>
+    </row>
+    <row r="39" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A39" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="19"/>
+    </row>
+    <row r="40" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A40" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="19"/>
+    </row>
+    <row r="41" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A41" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+    </row>
+    <row r="42" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A42" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="19"/>
+    </row>
+    <row r="43" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A43" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="19"/>
+    </row>
+    <row r="44" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A44" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="19"/>
+    </row>
+    <row r="45" spans="1:14" s="35" customFormat="1">
+      <c r="A45" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="33"/>
+      <c r="M45" s="33"/>
+      <c r="N45" s="34"/>
+    </row>
+    <row r="46" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A46" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="19"/>
+    </row>
+    <row r="47" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A47" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="19"/>
+    </row>
+    <row r="48" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A48" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="19"/>
+    </row>
+    <row r="49" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A49" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="19"/>
+    </row>
+    <row r="50" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A50" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="19"/>
+    </row>
+    <row r="51" spans="1:14" s="35" customFormat="1">
+      <c r="A51" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" s="33"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="33"/>
+      <c r="L51" s="33"/>
+      <c r="M51" s="33"/>
+      <c r="N51" s="34"/>
+    </row>
+    <row r="52" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A52" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="19"/>
+    </row>
+    <row r="53" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A53" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="19"/>
+    </row>
+    <row r="54" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A54" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="19"/>
+    </row>
+    <row r="55" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A55" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55" s="19"/>
+    </row>
+    <row r="56" spans="1:14" s="35" customFormat="1">
+      <c r="A56" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="33"/>
+      <c r="I56" s="33"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="33"/>
+      <c r="M56" s="33"/>
+      <c r="N56" s="34"/>
+    </row>
+    <row r="57" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A57" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="19"/>
+    </row>
+    <row r="58" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A58" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="19"/>
+    </row>
+    <row r="59" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A59" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="19"/>
+    </row>
+    <row r="60" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A60" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D60" s="19"/>
+    </row>
+    <row r="61" spans="1:14" s="35" customFormat="1">
+      <c r="A61" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="B61" s="33"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="33"/>
+      <c r="J61" s="33"/>
+      <c r="K61" s="33"/>
+      <c r="L61" s="33"/>
+      <c r="M61" s="33"/>
+      <c r="N61" s="34"/>
+    </row>
+    <row r="62" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A62" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="19"/>
+    </row>
+    <row r="63" spans="1:14" s="35" customFormat="1">
+      <c r="A63" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="33"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="33"/>
+      <c r="K63" s="33"/>
+      <c r="L63" s="33"/>
+      <c r="M63" s="33"/>
+      <c r="N63" s="34"/>
+    </row>
+    <row r="64" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A64" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="19"/>
+    </row>
+    <row r="65" spans="1:14" s="35" customFormat="1">
+      <c r="A65" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" s="33"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="33"/>
+      <c r="J65" s="33"/>
+      <c r="K65" s="33"/>
+      <c r="L65" s="33"/>
+      <c r="M65" s="33"/>
+      <c r="N65" s="34"/>
+    </row>
+    <row r="66" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A66" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" s="19"/>
+    </row>
+    <row r="67" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A67" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67" s="19"/>
+    </row>
+    <row r="68" spans="1:14" s="18" customFormat="1">
+      <c r="A68" s="19"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+    </row>
+    <row r="69" spans="1:14" s="18" customFormat="1">
+      <c r="A69" s="19"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+    </row>
+    <row r="70" spans="1:14" s="18" customFormat="1">
+      <c r="A70" s="19"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+    </row>
+    <row r="71" spans="1:14" s="18" customFormat="1">
+      <c r="A71" s="19"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+    </row>
+    <row r="72" spans="1:14" s="18" customFormat="1">
+      <c r="A72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+    </row>
+    <row r="73" spans="1:14" s="18" customFormat="1">
+      <c r="A73" s="19"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+    </row>
+    <row r="74" spans="1:14" s="18" customFormat="1">
+      <c r="A74" s="19"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+    </row>
+    <row r="75" spans="1:14" s="18" customFormat="1">
+      <c r="A75" s="19"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+    </row>
+    <row r="76" spans="1:14" s="18" customFormat="1">
+      <c r="A76" s="19"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+    </row>
+    <row r="77" spans="1:14" s="18" customFormat="1">
+      <c r="A77" s="19"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+    </row>
+    <row r="78" spans="1:14" s="18" customFormat="1">
+      <c r="A78" s="19"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
+    </row>
+    <row r="79" spans="1:14" s="18" customFormat="1">
+      <c r="A79" s="19"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="19"/>
+    </row>
+    <row r="80" spans="1:14" s="18" customFormat="1">
+      <c r="A80" s="19"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="19"/>
+    </row>
+    <row r="81" spans="1:13" s="18" customFormat="1">
+      <c r="A81" s="19"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+    </row>
+    <row r="82" spans="1:13" s="18" customFormat="1">
+      <c r="A82" s="19"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="19"/>
+    </row>
+    <row r="83" spans="1:13" s="18" customFormat="1">
+      <c r="A83" s="19"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
+    </row>
+    <row r="84" spans="1:13" s="18" customFormat="1">
+      <c r="A84" s="19"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+    </row>
+    <row r="85" spans="1:13" s="18" customFormat="1">
+      <c r="A85" s="19"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="19"/>
+    </row>
+    <row r="86" spans="1:13" s="18" customFormat="1">
+      <c r="A86" s="19"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="19"/>
+    </row>
+    <row r="87" spans="1:13" s="18" customFormat="1">
+      <c r="A87" s="19"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="19"/>
+    </row>
+    <row r="88" spans="1:13" s="18" customFormat="1">
+      <c r="A88" s="19"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="19"/>
+    </row>
+    <row r="89" spans="1:13" s="18" customFormat="1">
+      <c r="A89" s="19"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="19"/>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" s="20"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="2"/>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" s="20"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="2"/>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92" s="20"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="2"/>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" s="20"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="2"/>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94" s="20"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="20"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="2"/>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95" s="20"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="20"/>
+      <c r="D95" s="20"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="2"/>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="A96" s="20"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="2"/>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="A97" s="20"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="20"/>
+      <c r="D97" s="20"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
+      <c r="L97" s="4"/>
+      <c r="M97" s="2"/>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="A98" s="20"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="20"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="2"/>
+    </row>
+    <row r="99" spans="1:13" ht="15.75" customHeight="1"/>
+    <row r="108" spans="1:13" ht="15" customHeight="1"/>
+    <row r="111" spans="1:13" ht="15" customHeight="1"/>
+    <row r="114" ht="15" customHeight="1"/>
+    <row r="118" ht="15" customHeight="1"/>
+    <row r="123" ht="15" customHeight="1"/>
+    <row r="127" ht="15" customHeight="1"/>
+    <row r="128" ht="15" customHeight="1"/>
+    <row r="129" ht="15" customHeight="1"/>
+    <row r="130" ht="15" customHeight="1"/>
+    <row r="131" ht="15" customHeight="1"/>
+    <row r="132" ht="15" customHeight="1"/>
+    <row r="133" ht="15" customHeight="1"/>
+    <row r="134" ht="15" customHeight="1"/>
+    <row r="135" ht="15" customHeight="1"/>
+    <row r="136" ht="15" customHeight="1"/>
+    <row r="137" ht="15" customHeight="1"/>
+    <row r="138" ht="15" customHeight="1"/>
+    <row r="140" ht="15" customHeight="1"/>
+    <row r="153" ht="15" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A65:XFD65"/>
+    <mergeCell ref="A61:XFD61"/>
+    <mergeCell ref="A38:XFD38"/>
+    <mergeCell ref="A28:XFD28"/>
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="A56:XFD56"/>
+    <mergeCell ref="A63:XFD63"/>
+    <mergeCell ref="A8:XFD8"/>
+    <mergeCell ref="A22:XFD22"/>
+    <mergeCell ref="A45:XFD45"/>
+    <mergeCell ref="A51:XFD51"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/1.GDD/工作進度文件.xlsx
+++ b/1.GDD/工作進度文件.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E95D625B-EECA-4A52-B0D1-1E99A7FA0B80}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CD9477A6-F5C3-490E-BEE5-B194429B87EF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="144">
   <si>
     <t>S</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1006,19 +1006,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MingLiU"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>體重計細節完成</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>AI</t>
     </r>
     <r>
@@ -1484,6 +1471,66 @@
       </rPr>
       <t/>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水中狀態完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斜坡跳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>連跳取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>簡易版平衡木系統</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新版成長曲線</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>曉芸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>睿庭</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spine測試檔案製作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碰撞力道曲線調整</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1791,6 +1838,12 @@
     <xf numFmtId="49" fontId="2" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1802,12 +1855,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2103,11 +2150,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB576C66-0AB2-4DF5-8F71-D408CB53D31F}">
-  <dimension ref="A1:N153"/>
+  <dimension ref="A1:N159"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2128,7 +2175,7 @@
         <v>4</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D1" s="29" t="s">
         <v>60</v>
@@ -2137,36 +2184,36 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="35" customFormat="1">
-      <c r="A2" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="34"/>
+    <row r="2" spans="1:14" s="37" customFormat="1">
+      <c r="A2" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="36"/>
     </row>
     <row r="3" spans="1:14" s="18" customFormat="1" ht="15.75">
       <c r="A3" s="26" t="s">
         <v>69</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="36" t="s">
-        <v>128</v>
+      <c r="D3" s="32" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="18" customFormat="1" ht="15.75">
@@ -2174,13 +2221,13 @@
         <v>76</v>
       </c>
       <c r="B4" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>128</v>
+      <c r="D4" s="32" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="18" customFormat="1" ht="15.75">
@@ -2193,8 +2240,8 @@
       <c r="C5" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="36" t="s">
-        <v>128</v>
+      <c r="D5" s="32" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="18" customFormat="1" ht="15.75">
@@ -2202,13 +2249,13 @@
         <v>88</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="36" t="s">
-        <v>128</v>
+      <c r="D6" s="32" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="18" customFormat="1" ht="15.75">
@@ -2216,417 +2263,437 @@
         <v>88</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="36" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="35" customFormat="1">
-      <c r="A8" s="32" t="s">
+      <c r="D7" s="32" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="37" customFormat="1">
+      <c r="A8" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="34"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="36"/>
     </row>
     <row r="9" spans="1:14" s="18" customFormat="1" ht="15.75">
-      <c r="A9" s="27" t="s">
-        <v>73</v>
+      <c r="A9" s="26" t="s">
+        <v>69</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="19"/>
+      <c r="D9" s="32" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="10" spans="1:14" s="18" customFormat="1" ht="15.75">
-      <c r="A10" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>75</v>
+      <c r="A10" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>62</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="19"/>
+        <v>18</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="11" spans="1:14" s="18" customFormat="1" ht="15.75">
-      <c r="A11" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>72</v>
+      <c r="A11" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>121</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="19"/>
+        <v>18</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="12" spans="1:14" s="18" customFormat="1" ht="15.75">
-      <c r="A12" s="24" t="s">
-        <v>71</v>
+      <c r="A12" s="26" t="s">
+        <v>69</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="19"/>
+      <c r="D12" s="32" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="13" spans="1:14" s="18" customFormat="1" ht="15.75">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A14" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A15" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="37" customFormat="1">
+      <c r="A16" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="36"/>
+    </row>
+    <row r="17" spans="1:4" s="18" customFormat="1" ht="15.75">
+      <c r="A17" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="19"/>
+    </row>
+    <row r="18" spans="1:4" s="18" customFormat="1" ht="15.75">
+      <c r="A18" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="19"/>
+    </row>
+    <row r="19" spans="1:4" s="18" customFormat="1" ht="15.75">
+      <c r="A19" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="19"/>
+    </row>
+    <row r="20" spans="1:4" s="18" customFormat="1" ht="15.75">
+      <c r="A20" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="19"/>
+    </row>
+    <row r="21" spans="1:4" s="18" customFormat="1" ht="15.75">
+      <c r="A21" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="19"/>
+    </row>
+    <row r="22" spans="1:4" s="18" customFormat="1" ht="15.75">
+      <c r="A22" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="19"/>
-    </row>
-    <row r="14" spans="1:14" s="18" customFormat="1" ht="15.75">
-      <c r="A14" s="26" t="s">
+      <c r="B22" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="19"/>
+    </row>
+    <row r="23" spans="1:4" s="18" customFormat="1" ht="15.75">
+      <c r="A23" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" s="19" t="s">
+      <c r="B23" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="19"/>
-    </row>
-    <row r="15" spans="1:14" s="18" customFormat="1" ht="15.75">
-      <c r="A15" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="19"/>
-    </row>
-    <row r="16" spans="1:14" s="18" customFormat="1" ht="15.75">
-      <c r="A16" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="19"/>
-    </row>
-    <row r="17" spans="1:14" s="18" customFormat="1" ht="15.75">
-      <c r="A17" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="19"/>
-    </row>
-    <row r="18" spans="1:14" s="18" customFormat="1" ht="15.75">
-      <c r="A18" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="D18" s="19"/>
-    </row>
-    <row r="19" spans="1:14" s="18" customFormat="1" ht="15.75">
-      <c r="A19" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="19"/>
-    </row>
-    <row r="20" spans="1:14" s="18" customFormat="1" ht="15.75">
-      <c r="A20" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="19"/>
-    </row>
-    <row r="21" spans="1:14" s="18" customFormat="1" ht="15.75">
-      <c r="A21" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="19"/>
-    </row>
-    <row r="22" spans="1:14" s="35" customFormat="1">
-      <c r="A22" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="34"/>
-    </row>
-    <row r="23" spans="1:14" s="18" customFormat="1" ht="15.75">
-      <c r="A23" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>10</v>
-      </c>
       <c r="D23" s="19"/>
     </row>
-    <row r="24" spans="1:14" s="18" customFormat="1" ht="15.75">
+    <row r="24" spans="1:4" s="18" customFormat="1" ht="15.75">
       <c r="A24" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="18" t="s">
-        <v>80</v>
+      <c r="B24" s="17" t="s">
+        <v>125</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="19"/>
     </row>
-    <row r="25" spans="1:14" s="18" customFormat="1" ht="15.75">
-      <c r="A25" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>126</v>
+    <row r="25" spans="1:4" s="18" customFormat="1" ht="15.75">
+      <c r="A25" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>107</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="D25" s="19"/>
     </row>
-    <row r="26" spans="1:14" s="18" customFormat="1" ht="15.75">
+    <row r="26" spans="1:4" s="18" customFormat="1" ht="15.75">
       <c r="A26" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>96</v>
+      <c r="B26" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>135</v>
       </c>
       <c r="D26" s="19"/>
     </row>
-    <row r="27" spans="1:14" s="18" customFormat="1" ht="15.75">
-      <c r="A27" s="25" t="s">
+    <row r="27" spans="1:4" s="18" customFormat="1" ht="15.75">
+      <c r="A27" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="18" customFormat="1" ht="15.75">
+      <c r="A28" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="C27" s="19" t="s">
+      <c r="B28" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="19"/>
-    </row>
-    <row r="28" spans="1:14" s="35" customFormat="1">
-      <c r="A28" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="34"/>
-    </row>
-    <row r="29" spans="1:14" s="18" customFormat="1" ht="15.75">
-      <c r="A29" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>90</v>
+      <c r="D28" s="32" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="18" customFormat="1" ht="15.75">
+      <c r="A29" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>136</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="19"/>
-    </row>
-    <row r="30" spans="1:14" s="18" customFormat="1" ht="15.75">
-      <c r="A30" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>91</v>
+        <v>22</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="18" customFormat="1" ht="15.75">
+      <c r="A30" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>137</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="19"/>
-    </row>
-    <row r="31" spans="1:14" s="18" customFormat="1" ht="15.75">
-      <c r="A31" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>92</v>
+        <v>22</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="18" customFormat="1" ht="15.75">
+      <c r="A31" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>138</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="19"/>
-    </row>
-    <row r="32" spans="1:14" s="18" customFormat="1" ht="15.75">
-      <c r="A32" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>109</v>
+        <v>22</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="18" customFormat="1" ht="15.75">
+      <c r="A32" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="19"/>
+        <v>22</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="33" spans="1:14" s="18" customFormat="1" ht="15.75">
-      <c r="A33" s="23" t="s">
-        <v>76</v>
+      <c r="A33" s="28" t="s">
+        <v>81</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="C33" s="19" t="s">
         <v>10</v>
       </c>
       <c r="D33" s="19"/>
     </row>
-    <row r="34" spans="1:14" s="18" customFormat="1" ht="15.75">
-      <c r="A34" s="23" t="s">
+    <row r="34" spans="1:14" s="37" customFormat="1">
+      <c r="A34" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="36"/>
+    </row>
+    <row r="35" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A35" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="19"/>
+    </row>
+    <row r="36" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A36" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="19"/>
+    </row>
+    <row r="37" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A37" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="19"/>
+    </row>
+    <row r="38" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A38" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="C34" s="19" t="s">
+      <c r="B38" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="19"/>
-    </row>
-    <row r="35" spans="1:14" s="18" customFormat="1" ht="15.75">
-      <c r="A35" s="23" t="s">
+      <c r="D38" s="19"/>
+    </row>
+    <row r="39" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A39" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="19"/>
-    </row>
-    <row r="36" spans="1:14" s="18" customFormat="1" ht="15.75">
-      <c r="A36" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="19"/>
-    </row>
-    <row r="37" spans="1:14" s="18" customFormat="1" ht="15.75">
-      <c r="A37" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" s="19"/>
-    </row>
-    <row r="38" spans="1:14" s="35" customFormat="1">
-      <c r="A38" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="33"/>
-      <c r="N38" s="34"/>
-    </row>
-    <row r="39" spans="1:14" s="18" customFormat="1" ht="15.75">
-      <c r="A39" s="27" t="s">
-        <v>73</v>
-      </c>
       <c r="B39" s="18" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="C39" s="19" t="s">
         <v>10</v>
@@ -2634,87 +2701,89 @@
       <c r="D39" s="19"/>
     </row>
     <row r="40" spans="1:14" s="18" customFormat="1" ht="15.75">
-      <c r="A40" s="26" t="s">
-        <v>69</v>
+      <c r="A40" s="23" t="s">
+        <v>76</v>
       </c>
       <c r="B40" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="19"/>
+    </row>
+    <row r="41" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A41" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="19"/>
+    </row>
+    <row r="42" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A42" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="19"/>
+    </row>
+    <row r="43" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A43" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="19"/>
+    </row>
+    <row r="44" spans="1:14" s="37" customFormat="1">
+      <c r="A44" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="35"/>
+      <c r="M44" s="35"/>
+      <c r="N44" s="36"/>
+    </row>
+    <row r="45" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A45" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C40" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" s="19"/>
-    </row>
-    <row r="41" spans="1:14" s="18" customFormat="1" ht="15.75">
-      <c r="A41" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B41" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-    </row>
-    <row r="42" spans="1:14" s="18" customFormat="1" ht="15.75">
-      <c r="A42" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B42" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C42" s="19" t="s">
+      <c r="C45" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="19"/>
-    </row>
-    <row r="43" spans="1:14" s="18" customFormat="1" ht="15.75">
-      <c r="A43" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="19"/>
-    </row>
-    <row r="44" spans="1:14" s="18" customFormat="1" ht="15.75">
-      <c r="A44" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D44" s="19"/>
-    </row>
-    <row r="45" spans="1:14" s="35" customFormat="1">
-      <c r="A45" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="33"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="33"/>
-      <c r="N45" s="34"/>
+      <c r="D45" s="19"/>
     </row>
     <row r="46" spans="1:14" s="18" customFormat="1" ht="15.75">
       <c r="A46" s="26" t="s">
         <v>69</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C46" s="19" t="s">
         <v>18</v>
@@ -2722,35 +2791,33 @@
       <c r="D46" s="19"/>
     </row>
     <row r="47" spans="1:14" s="18" customFormat="1" ht="15.75">
-      <c r="A47" s="26" t="s">
-        <v>69</v>
+      <c r="A47" s="23" t="s">
+        <v>76</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>18</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C47" s="19"/>
       <c r="D47" s="19"/>
     </row>
     <row r="48" spans="1:14" s="18" customFormat="1" ht="15.75">
-      <c r="A48" s="26" t="s">
-        <v>69</v>
+      <c r="A48" s="23" t="s">
+        <v>76</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D48" s="19"/>
     </row>
     <row r="49" spans="1:14" s="18" customFormat="1" ht="15.75">
-      <c r="A49" s="23" t="s">
-        <v>76</v>
+      <c r="A49" s="28" t="s">
+        <v>81</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="C49" s="19" t="s">
         <v>10</v>
@@ -2761,53 +2828,53 @@
       <c r="A50" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="B50" s="18" t="s">
-        <v>99</v>
+      <c r="B50" s="17" t="s">
+        <v>122</v>
       </c>
       <c r="C50" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="19"/>
+    </row>
+    <row r="51" spans="1:14" s="37" customFormat="1">
+      <c r="A51" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="35"/>
+      <c r="N51" s="36"/>
+    </row>
+    <row r="52" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A52" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="19"/>
-    </row>
-    <row r="51" spans="1:14" s="35" customFormat="1">
-      <c r="A51" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="33"/>
-      <c r="J51" s="33"/>
-      <c r="K51" s="33"/>
-      <c r="L51" s="33"/>
-      <c r="M51" s="33"/>
-      <c r="N51" s="34"/>
-    </row>
-    <row r="52" spans="1:14" s="18" customFormat="1" ht="15.75">
-      <c r="A52" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="B52" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>10</v>
-      </c>
       <c r="D52" s="19"/>
     </row>
     <row r="53" spans="1:14" s="18" customFormat="1" ht="15.75">
-      <c r="A53" s="24" t="s">
-        <v>71</v>
+      <c r="A53" s="26" t="s">
+        <v>69</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D53" s="19"/>
     </row>
@@ -2816,221 +2883,269 @@
         <v>69</v>
       </c>
       <c r="B54" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="19"/>
+    </row>
+    <row r="55" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A55" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="19"/>
+    </row>
+    <row r="56" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A56" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="19"/>
+    </row>
+    <row r="57" spans="1:14" s="37" customFormat="1">
+      <c r="A57" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
+      <c r="J57" s="35"/>
+      <c r="K57" s="35"/>
+      <c r="L57" s="35"/>
+      <c r="M57" s="35"/>
+      <c r="N57" s="36"/>
+    </row>
+    <row r="58" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A58" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="19"/>
+    </row>
+    <row r="59" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A59" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="19"/>
+    </row>
+    <row r="60" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A60" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="19"/>
+    </row>
+    <row r="61" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A61" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D61" s="19"/>
+    </row>
+    <row r="62" spans="1:14" s="37" customFormat="1">
+      <c r="A62" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" s="35"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="35"/>
+      <c r="L62" s="35"/>
+      <c r="M62" s="35"/>
+      <c r="N62" s="36"/>
+    </row>
+    <row r="63" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A63" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="19"/>
+    </row>
+    <row r="64" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A64" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C54" s="19" t="s">
+      <c r="C64" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="19"/>
+    </row>
+    <row r="65" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A65" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" s="19"/>
+    </row>
+    <row r="66" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A66" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D66" s="19"/>
+    </row>
+    <row r="67" spans="1:14" s="37" customFormat="1">
+      <c r="A67" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B67" s="35"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="35"/>
+      <c r="I67" s="35"/>
+      <c r="J67" s="35"/>
+      <c r="K67" s="35"/>
+      <c r="L67" s="35"/>
+      <c r="M67" s="35"/>
+      <c r="N67" s="36"/>
+    </row>
+    <row r="68" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A68" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" s="19"/>
+    </row>
+    <row r="69" spans="1:14" s="37" customFormat="1">
+      <c r="A69" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B69" s="35"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="35"/>
+      <c r="I69" s="35"/>
+      <c r="J69" s="35"/>
+      <c r="K69" s="35"/>
+      <c r="L69" s="35"/>
+      <c r="M69" s="35"/>
+      <c r="N69" s="36"/>
+    </row>
+    <row r="70" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A70" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C70" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="19"/>
-    </row>
-    <row r="55" spans="1:14" s="18" customFormat="1" ht="15.75">
-      <c r="A55" s="25" t="s">
+      <c r="D70" s="19"/>
+    </row>
+    <row r="71" spans="1:14" s="37" customFormat="1">
+      <c r="A71" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B71" s="35"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="35"/>
+      <c r="G71" s="35"/>
+      <c r="H71" s="35"/>
+      <c r="I71" s="35"/>
+      <c r="J71" s="35"/>
+      <c r="K71" s="35"/>
+      <c r="L71" s="35"/>
+      <c r="M71" s="35"/>
+      <c r="N71" s="36"/>
+    </row>
+    <row r="72" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A72" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="B55" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="C55" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D55" s="19"/>
-    </row>
-    <row r="56" spans="1:14" s="35" customFormat="1">
-      <c r="A56" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="B56" s="33"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="33"/>
-      <c r="I56" s="33"/>
-      <c r="J56" s="33"/>
-      <c r="K56" s="33"/>
-      <c r="L56" s="33"/>
-      <c r="M56" s="33"/>
-      <c r="N56" s="34"/>
-    </row>
-    <row r="57" spans="1:14" s="18" customFormat="1" ht="15.75">
-      <c r="A57" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D57" s="19"/>
-    </row>
-    <row r="58" spans="1:14" s="18" customFormat="1" ht="15.75">
-      <c r="A58" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="C58" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D58" s="19"/>
-    </row>
-    <row r="59" spans="1:14" s="18" customFormat="1" ht="15.75">
-      <c r="A59" s="25" t="s">
+      <c r="B72" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72" s="19"/>
+    </row>
+    <row r="73" spans="1:14" s="18" customFormat="1" ht="15.75">
+      <c r="A73" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="B59" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D59" s="19"/>
-    </row>
-    <row r="60" spans="1:14" s="18" customFormat="1" ht="15.75">
-      <c r="A60" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="B60" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="D60" s="19"/>
-    </row>
-    <row r="61" spans="1:14" s="35" customFormat="1">
-      <c r="A61" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="B61" s="33"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="33"/>
-      <c r="J61" s="33"/>
-      <c r="K61" s="33"/>
-      <c r="L61" s="33"/>
-      <c r="M61" s="33"/>
-      <c r="N61" s="34"/>
-    </row>
-    <row r="62" spans="1:14" s="18" customFormat="1" ht="15.75">
-      <c r="A62" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="C62" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D62" s="19"/>
-    </row>
-    <row r="63" spans="1:14" s="35" customFormat="1">
-      <c r="A63" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="B63" s="33"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="33"/>
-      <c r="I63" s="33"/>
-      <c r="J63" s="33"/>
-      <c r="K63" s="33"/>
-      <c r="L63" s="33"/>
-      <c r="M63" s="33"/>
-      <c r="N63" s="34"/>
-    </row>
-    <row r="64" spans="1:14" s="18" customFormat="1" ht="15.75">
-      <c r="A64" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B64" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="C64" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D64" s="19"/>
-    </row>
-    <row r="65" spans="1:14" s="35" customFormat="1">
-      <c r="A65" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="B65" s="33"/>
-      <c r="C65" s="33"/>
-      <c r="D65" s="33"/>
-      <c r="E65" s="33"/>
-      <c r="F65" s="33"/>
-      <c r="G65" s="33"/>
-      <c r="H65" s="33"/>
-      <c r="I65" s="33"/>
-      <c r="J65" s="33"/>
-      <c r="K65" s="33"/>
-      <c r="L65" s="33"/>
-      <c r="M65" s="33"/>
-      <c r="N65" s="34"/>
-    </row>
-    <row r="66" spans="1:14" s="18" customFormat="1" ht="15.75">
-      <c r="A66" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="B66" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C66" s="19" t="s">
+      <c r="B73" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C73" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D66" s="19"/>
-    </row>
-    <row r="67" spans="1:14" s="18" customFormat="1" ht="15.75">
-      <c r="A67" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="B67" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="C67" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D67" s="19"/>
-    </row>
-    <row r="68" spans="1:14" s="18" customFormat="1">
-      <c r="A68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-    </row>
-    <row r="69" spans="1:14" s="18" customFormat="1">
-      <c r="A69" s="19"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-    </row>
-    <row r="70" spans="1:14" s="18" customFormat="1">
-      <c r="A70" s="19"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
-    </row>
-    <row r="71" spans="1:14" s="18" customFormat="1">
-      <c r="A71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-    </row>
-    <row r="72" spans="1:14" s="18" customFormat="1">
-      <c r="A72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-    </row>
-    <row r="73" spans="1:14" s="18" customFormat="1">
-      <c r="A73" s="19"/>
-      <c r="C73" s="19"/>
       <c r="D73" s="19"/>
     </row>
     <row r="74" spans="1:14" s="18" customFormat="1">
@@ -3113,95 +3228,35 @@
       <c r="C89" s="19"/>
       <c r="D89" s="19"/>
     </row>
-    <row r="90" spans="1:13">
-      <c r="A90" s="20"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="20"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
-      <c r="I90" s="4"/>
-      <c r="J90" s="4"/>
-      <c r="K90" s="4"/>
-      <c r="L90" s="4"/>
-      <c r="M90" s="2"/>
-    </row>
-    <row r="91" spans="1:13">
-      <c r="A91" s="20"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="20"/>
-      <c r="D91" s="20"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-      <c r="H91" s="4"/>
-      <c r="I91" s="4"/>
-      <c r="J91" s="4"/>
-      <c r="K91" s="4"/>
-      <c r="L91" s="4"/>
-      <c r="M91" s="2"/>
-    </row>
-    <row r="92" spans="1:13">
-      <c r="A92" s="20"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="20"/>
-      <c r="D92" s="20"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
-      <c r="I92" s="4"/>
-      <c r="J92" s="4"/>
-      <c r="K92" s="4"/>
-      <c r="L92" s="4"/>
-      <c r="M92" s="2"/>
-    </row>
-    <row r="93" spans="1:13">
-      <c r="A93" s="20"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="20"/>
-      <c r="D93" s="20"/>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
-      <c r="I93" s="4"/>
-      <c r="J93" s="4"/>
-      <c r="K93" s="4"/>
-      <c r="L93" s="4"/>
-      <c r="M93" s="2"/>
-    </row>
-    <row r="94" spans="1:13">
-      <c r="A94" s="20"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="20"/>
-      <c r="D94" s="20"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
-      <c r="I94" s="4"/>
-      <c r="J94" s="4"/>
-      <c r="K94" s="4"/>
-      <c r="L94" s="4"/>
-      <c r="M94" s="2"/>
-    </row>
-    <row r="95" spans="1:13">
-      <c r="A95" s="20"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="20"/>
-      <c r="D95" s="20"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
-      <c r="H95" s="4"/>
-      <c r="I95" s="4"/>
-      <c r="J95" s="4"/>
-      <c r="K95" s="4"/>
-      <c r="L95" s="4"/>
-      <c r="M95" s="2"/>
+    <row r="90" spans="1:13" s="18" customFormat="1">
+      <c r="A90" s="19"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19"/>
+    </row>
+    <row r="91" spans="1:13" s="18" customFormat="1">
+      <c r="A91" s="19"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
+    </row>
+    <row r="92" spans="1:13" s="18" customFormat="1">
+      <c r="A92" s="19"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="19"/>
+    </row>
+    <row r="93" spans="1:13" s="18" customFormat="1">
+      <c r="A93" s="19"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="19"/>
+    </row>
+    <row r="94" spans="1:13" s="18" customFormat="1">
+      <c r="A94" s="19"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="19"/>
+    </row>
+    <row r="95" spans="1:13" s="18" customFormat="1">
+      <c r="A95" s="19"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="19"/>
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="20"/>
@@ -3248,39 +3303,129 @@
       <c r="L98" s="4"/>
       <c r="M98" s="2"/>
     </row>
-    <row r="99" spans="1:13" ht="15.75" customHeight="1"/>
-    <row r="108" spans="1:13" ht="15" customHeight="1"/>
-    <row r="111" spans="1:13" ht="15" customHeight="1"/>
+    <row r="99" spans="1:13">
+      <c r="A99" s="20"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="20"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="4"/>
+      <c r="L99" s="4"/>
+      <c r="M99" s="2"/>
+    </row>
+    <row r="100" spans="1:13">
+      <c r="A100" s="20"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="20"/>
+      <c r="D100" s="20"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+      <c r="K100" s="4"/>
+      <c r="L100" s="4"/>
+      <c r="M100" s="2"/>
+    </row>
+    <row r="101" spans="1:13">
+      <c r="A101" s="20"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
+      <c r="L101" s="4"/>
+      <c r="M101" s="2"/>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="A102" s="20"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="20"/>
+      <c r="D102" s="20"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
+      <c r="L102" s="4"/>
+      <c r="M102" s="2"/>
+    </row>
+    <row r="103" spans="1:13">
+      <c r="A103" s="20"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="20"/>
+      <c r="D103" s="20"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="4"/>
+      <c r="L103" s="4"/>
+      <c r="M103" s="2"/>
+    </row>
+    <row r="104" spans="1:13">
+      <c r="A104" s="20"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="20"/>
+      <c r="D104" s="20"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+      <c r="K104" s="4"/>
+      <c r="L104" s="4"/>
+      <c r="M104" s="2"/>
+    </row>
+    <row r="105" spans="1:13" ht="15.75" customHeight="1"/>
     <row r="114" ht="15" customHeight="1"/>
-    <row r="118" ht="15" customHeight="1"/>
-    <row r="123" ht="15" customHeight="1"/>
-    <row r="127" ht="15" customHeight="1"/>
-    <row r="128" ht="15" customHeight="1"/>
+    <row r="117" ht="15" customHeight="1"/>
+    <row r="120" ht="15" customHeight="1"/>
+    <row r="124" ht="15" customHeight="1"/>
     <row r="129" ht="15" customHeight="1"/>
-    <row r="130" ht="15" customHeight="1"/>
-    <row r="131" ht="15" customHeight="1"/>
-    <row r="132" ht="15" customHeight="1"/>
     <row r="133" ht="15" customHeight="1"/>
     <row r="134" ht="15" customHeight="1"/>
     <row r="135" ht="15" customHeight="1"/>
     <row r="136" ht="15" customHeight="1"/>
     <row r="137" ht="15" customHeight="1"/>
     <row r="138" ht="15" customHeight="1"/>
+    <row r="139" ht="15" customHeight="1"/>
     <row r="140" ht="15" customHeight="1"/>
-    <row r="153" ht="15" customHeight="1"/>
+    <row r="141" ht="15" customHeight="1"/>
+    <row r="142" ht="15" customHeight="1"/>
+    <row r="143" ht="15" customHeight="1"/>
+    <row r="144" ht="15" customHeight="1"/>
+    <row r="146" ht="15" customHeight="1"/>
+    <row r="159" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A65:XFD65"/>
-    <mergeCell ref="A61:XFD61"/>
-    <mergeCell ref="A38:XFD38"/>
-    <mergeCell ref="A28:XFD28"/>
+    <mergeCell ref="A71:XFD71"/>
+    <mergeCell ref="A67:XFD67"/>
+    <mergeCell ref="A44:XFD44"/>
+    <mergeCell ref="A34:XFD34"/>
     <mergeCell ref="A2:XFD2"/>
-    <mergeCell ref="A56:XFD56"/>
-    <mergeCell ref="A63:XFD63"/>
+    <mergeCell ref="A62:XFD62"/>
+    <mergeCell ref="A69:XFD69"/>
     <mergeCell ref="A8:XFD8"/>
-    <mergeCell ref="A22:XFD22"/>
-    <mergeCell ref="A45:XFD45"/>
+    <mergeCell ref="A16:XFD16"/>
     <mergeCell ref="A51:XFD51"/>
+    <mergeCell ref="A57:XFD57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1.GDD/工作進度文件.xlsx
+++ b/1.GDD/工作進度文件.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="160">
   <si>
     <t>S</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1118,6 +1118,22 @@
       </rPr>
       <t>容討論</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>變過小Bug修正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推人力道調整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音樂機關製作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一人吃多次錯誤修正</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1355,7 +1371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1395,18 +1411,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1447,6 +1451,21 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1742,21 +1761,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N161"/>
+  <dimension ref="A1:N165"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="37" customWidth="1"/>
-    <col min="2" max="2" width="35.625" style="36" customWidth="1"/>
-    <col min="3" max="3" width="17.125" style="37" customWidth="1"/>
-    <col min="4" max="4" width="8.625" style="37" customWidth="1"/>
-    <col min="5" max="5" width="33.625" style="36" customWidth="1"/>
-    <col min="6" max="16384" width="9.125" style="36"/>
+    <col min="1" max="1" width="13.375" style="33" customWidth="1"/>
+    <col min="2" max="2" width="35.625" style="32" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="33.625" style="32" customWidth="1"/>
+    <col min="6" max="16384" width="9.125" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="18" customFormat="1">
@@ -1776,1253 +1795,1307 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="22" customFormat="1">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:14" s="37" customFormat="1">
+      <c r="A2" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="21"/>
-    </row>
-    <row r="3" spans="1:14" s="24" customFormat="1">
-      <c r="A3" s="23" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="36"/>
+    </row>
+    <row r="3" spans="1:14" s="20" customFormat="1">
+      <c r="A3" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="24" customFormat="1">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:14" s="20" customFormat="1">
+      <c r="A4" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="24" customFormat="1">
-      <c r="A5" s="27" t="s">
+    <row r="5" spans="1:14" s="20" customFormat="1">
+      <c r="A5" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="24" customFormat="1">
-      <c r="A6" s="28" t="s">
+    <row r="6" spans="1:14" s="20" customFormat="1">
+      <c r="A6" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="24" customFormat="1">
-      <c r="A7" s="28" t="s">
+    <row r="7" spans="1:14" s="20" customFormat="1">
+      <c r="A7" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="22" customFormat="1">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:14" s="37" customFormat="1">
+      <c r="A8" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="21"/>
-    </row>
-    <row r="9" spans="1:14" s="24" customFormat="1">
-      <c r="A9" s="23" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="36"/>
+    </row>
+    <row r="9" spans="1:14" s="20" customFormat="1">
+      <c r="A9" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="24" customFormat="1">
-      <c r="A10" s="23" t="s">
+    <row r="10" spans="1:14" s="20" customFormat="1">
+      <c r="A10" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="24" customFormat="1">
-      <c r="A11" s="23" t="s">
+    <row r="11" spans="1:14" s="20" customFormat="1">
+      <c r="A11" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="24" customFormat="1">
-      <c r="A12" s="23" t="s">
+    <row r="12" spans="1:14" s="20" customFormat="1">
+      <c r="A12" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="24" customFormat="1">
-      <c r="A13" s="27" t="s">
+    <row r="13" spans="1:14" s="20" customFormat="1">
+      <c r="A13" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="24" customFormat="1">
-      <c r="A14" s="27" t="s">
+    <row r="14" spans="1:14" s="20" customFormat="1">
+      <c r="A14" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="24" customFormat="1">
-      <c r="A15" s="28" t="s">
+    <row r="15" spans="1:14" s="20" customFormat="1">
+      <c r="A15" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="22" customFormat="1">
-      <c r="A16" s="19" t="s">
+    <row r="16" spans="1:14" s="37" customFormat="1">
+      <c r="A16" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="21"/>
-    </row>
-    <row r="17" spans="1:14" s="24" customFormat="1">
-      <c r="A17" s="23" t="s">
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="36"/>
+    </row>
+    <row r="17" spans="1:14" s="20" customFormat="1">
+      <c r="A17" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="24" customFormat="1">
-      <c r="A18" s="27" t="s">
+    <row r="18" spans="1:14" s="20" customFormat="1">
+      <c r="A18" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="24" customFormat="1">
-      <c r="A19" s="27" t="s">
+    <row r="19" spans="1:14" s="20" customFormat="1">
+      <c r="A19" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="24" customFormat="1">
-      <c r="A20" s="28" t="s">
+    <row r="20" spans="1:14" s="20" customFormat="1">
+      <c r="A20" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="24" customFormat="1">
-      <c r="A21" s="28" t="s">
+    <row r="21" spans="1:14" s="20" customFormat="1">
+      <c r="A21" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="24" customFormat="1">
-      <c r="A22" s="28" t="s">
+    <row r="22" spans="1:14" s="20" customFormat="1">
+      <c r="A22" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="24" customFormat="1">
-      <c r="A23" s="28" t="s">
+    <row r="23" spans="1:14" s="20" customFormat="1">
+      <c r="A23" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="20" customFormat="1">
+      <c r="A24" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C24" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D24" s="22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="24" customFormat="1">
-      <c r="A24" s="28" t="s">
+    <row r="25" spans="1:14" s="20" customFormat="1">
+      <c r="A25" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B25" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C25" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D25" s="22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="22" customFormat="1">
-      <c r="A25" s="19" t="s">
+    <row r="26" spans="1:14" s="37" customFormat="1">
+      <c r="A26" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="21"/>
-    </row>
-    <row r="26" spans="1:14" s="24" customFormat="1">
-      <c r="A26" s="29" t="s">
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="36"/>
+    </row>
+    <row r="27" spans="1:14" s="20" customFormat="1">
+      <c r="A27" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B27" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C27" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D26" s="25"/>
-    </row>
-    <row r="27" spans="1:14" s="24" customFormat="1">
-      <c r="A27" s="29" t="s">
+      <c r="D27" s="21"/>
+    </row>
+    <row r="28" spans="1:14" s="20" customFormat="1">
+      <c r="A28" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B28" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C28" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="25"/>
-    </row>
-    <row r="28" spans="1:14" s="24" customFormat="1">
-      <c r="A28" s="29" t="s">
+      <c r="D28" s="21"/>
+    </row>
+    <row r="29" spans="1:14" s="20" customFormat="1">
+      <c r="A29" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B29" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C29" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D28" s="25"/>
-    </row>
-    <row r="29" spans="1:14" s="24" customFormat="1">
-      <c r="A29" s="30" t="s">
+      <c r="D29" s="21"/>
+    </row>
+    <row r="30" spans="1:14" s="20" customFormat="1">
+      <c r="A30" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B30" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C30" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D29" s="25"/>
-    </row>
-    <row r="30" spans="1:14" s="24" customFormat="1">
-      <c r="A30" s="30" t="s">
+      <c r="D30" s="21"/>
+    </row>
+    <row r="31" spans="1:14" s="20" customFormat="1">
+      <c r="A31" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B31" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C31" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="25"/>
-    </row>
-    <row r="31" spans="1:14" s="24" customFormat="1">
-      <c r="A31" s="30" t="s">
+      <c r="D31" s="21"/>
+    </row>
+    <row r="32" spans="1:14" s="20" customFormat="1">
+      <c r="A32" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B32" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C32" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D31" s="25"/>
-    </row>
-    <row r="32" spans="1:14" s="24" customFormat="1">
-      <c r="A32" s="23" t="s">
+      <c r="D32" s="21"/>
+    </row>
+    <row r="33" spans="1:4" s="20" customFormat="1">
+      <c r="A33" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B33" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C33" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="25"/>
-    </row>
-    <row r="33" spans="1:14" s="24" customFormat="1">
-      <c r="A33" s="23" t="s">
+      <c r="D33" s="21"/>
+    </row>
+    <row r="34" spans="1:4" s="20" customFormat="1">
+      <c r="A34" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B34" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C34" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D33" s="25"/>
-    </row>
-    <row r="34" spans="1:14" s="24" customFormat="1">
-      <c r="A34" s="23" t="s">
+      <c r="D34" s="21"/>
+    </row>
+    <row r="35" spans="1:4" s="20" customFormat="1">
+      <c r="A35" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B35" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C35" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D34" s="25"/>
-    </row>
-    <row r="35" spans="1:14" s="24" customFormat="1">
-      <c r="A35" s="23" t="s">
+      <c r="D35" s="21"/>
+    </row>
+    <row r="36" spans="1:4" s="20" customFormat="1">
+      <c r="A36" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B36" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C36" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D35" s="25"/>
-    </row>
-    <row r="36" spans="1:14" s="24" customFormat="1">
-      <c r="A36" s="27" t="s">
+      <c r="D36" s="21"/>
+    </row>
+    <row r="37" spans="1:4" s="20" customFormat="1">
+      <c r="A37" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B37" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C37" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="25"/>
-    </row>
-    <row r="37" spans="1:14" s="24" customFormat="1">
-      <c r="A37" s="27" t="s">
+      <c r="D37" s="21"/>
+    </row>
+    <row r="38" spans="1:4" s="20" customFormat="1">
+      <c r="A38" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="B38" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C38" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="D37" s="25"/>
-    </row>
-    <row r="38" spans="1:14" s="24" customFormat="1">
-      <c r="A38" s="27" t="s">
+      <c r="D38" s="21"/>
+    </row>
+    <row r="39" spans="1:4" s="20" customFormat="1">
+      <c r="A39" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="B39" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C39" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="D38" s="25"/>
-    </row>
-    <row r="39" spans="1:14" s="24" customFormat="1">
-      <c r="A39" s="27" t="s">
+      <c r="D39" s="21"/>
+    </row>
+    <row r="40" spans="1:4" s="20" customFormat="1">
+      <c r="A40" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B40" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C40" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="D39" s="25"/>
-    </row>
-    <row r="40" spans="1:14" s="24" customFormat="1">
-      <c r="A40" s="27" t="s">
+      <c r="D40" s="21"/>
+    </row>
+    <row r="41" spans="1:4" s="20" customFormat="1">
+      <c r="A41" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B41" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C41" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="D40" s="25"/>
-    </row>
-    <row r="41" spans="1:14" s="24" customFormat="1">
-      <c r="A41" s="28" t="s">
+      <c r="D41" s="21"/>
+    </row>
+    <row r="42" spans="1:4" s="20" customFormat="1">
+      <c r="A42" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B41" s="24" t="s">
+      <c r="B42" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C42" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D41" s="25"/>
-    </row>
-    <row r="42" spans="1:14" s="24" customFormat="1">
-      <c r="A42" s="28" t="s">
+      <c r="D42" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="20" customFormat="1">
+      <c r="A43" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B42" s="24" t="s">
+      <c r="B43" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="20" customFormat="1">
+      <c r="A44" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B44" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="20" customFormat="1">
+      <c r="A45" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="20" customFormat="1">
+      <c r="A46" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C46" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="25"/>
-    </row>
-    <row r="43" spans="1:14" s="24" customFormat="1">
-      <c r="A43" s="28" t="s">
+      <c r="D46" s="21"/>
+    </row>
+    <row r="47" spans="1:4" s="20" customFormat="1">
+      <c r="A47" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B43" s="24" t="s">
+      <c r="B47" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="C47" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="25"/>
-    </row>
-    <row r="44" spans="1:14" s="24" customFormat="1">
-      <c r="A44" s="28" t="s">
+      <c r="D47" s="21"/>
+    </row>
+    <row r="48" spans="1:4" s="20" customFormat="1">
+      <c r="A48" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48" s="21"/>
+    </row>
+    <row r="49" spans="1:14" s="37" customFormat="1">
+      <c r="A49" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="35"/>
+      <c r="N49" s="36"/>
+    </row>
+    <row r="50" spans="1:14" s="20" customFormat="1">
+      <c r="A50" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D50" s="21"/>
+    </row>
+    <row r="51" spans="1:14" s="20" customFormat="1">
+      <c r="A51" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D51" s="21"/>
+    </row>
+    <row r="52" spans="1:14" s="20" customFormat="1">
+      <c r="A52" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+    </row>
+    <row r="53" spans="1:14" s="20" customFormat="1">
+      <c r="A53" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D53" s="21"/>
+    </row>
+    <row r="54" spans="1:14" s="20" customFormat="1">
+      <c r="A54" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D54" s="21"/>
+    </row>
+    <row r="55" spans="1:14" s="20" customFormat="1">
+      <c r="A55" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B55" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C55" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="D44" s="25"/>
-    </row>
-    <row r="45" spans="1:14" s="24" customFormat="1">
-      <c r="A45" s="31" t="s">
+      <c r="D55" s="21"/>
+    </row>
+    <row r="56" spans="1:14" s="20" customFormat="1">
+      <c r="A56" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D56" s="21"/>
+    </row>
+    <row r="57" spans="1:14" s="37" customFormat="1">
+      <c r="A57" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
+      <c r="J57" s="35"/>
+      <c r="K57" s="35"/>
+      <c r="L57" s="35"/>
+      <c r="M57" s="35"/>
+      <c r="N57" s="36"/>
+    </row>
+    <row r="58" spans="1:14" s="20" customFormat="1">
+      <c r="A58" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D58" s="21"/>
+    </row>
+    <row r="59" spans="1:14" s="20" customFormat="1">
+      <c r="A59" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D59" s="21"/>
+    </row>
+    <row r="60" spans="1:14" s="20" customFormat="1">
+      <c r="A60" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D60" s="21"/>
+    </row>
+    <row r="61" spans="1:14" s="20" customFormat="1">
+      <c r="A61" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D61" s="21"/>
+    </row>
+    <row r="62" spans="1:14" s="20" customFormat="1">
+      <c r="A62" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D62" s="21"/>
+    </row>
+    <row r="63" spans="1:14" s="37" customFormat="1">
+      <c r="A63" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="35"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="35"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="35"/>
+      <c r="I63" s="35"/>
+      <c r="J63" s="35"/>
+      <c r="K63" s="35"/>
+      <c r="L63" s="35"/>
+      <c r="M63" s="35"/>
+      <c r="N63" s="36"/>
+    </row>
+    <row r="64" spans="1:14" s="20" customFormat="1">
+      <c r="A64" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D64" s="21"/>
+    </row>
+    <row r="65" spans="1:14" s="20" customFormat="1">
+      <c r="A65" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D65" s="21"/>
+    </row>
+    <row r="66" spans="1:14" s="20" customFormat="1">
+      <c r="A66" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D66" s="21"/>
+    </row>
+    <row r="67" spans="1:14" s="20" customFormat="1">
+      <c r="A67" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D67" s="21"/>
+    </row>
+    <row r="68" spans="1:14" s="37" customFormat="1">
+      <c r="A68" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B68" s="35"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="35"/>
+      <c r="I68" s="35"/>
+      <c r="J68" s="35"/>
+      <c r="K68" s="35"/>
+      <c r="L68" s="35"/>
+      <c r="M68" s="35"/>
+      <c r="N68" s="36"/>
+    </row>
+    <row r="69" spans="1:14" s="20" customFormat="1">
+      <c r="A69" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D69" s="21"/>
+    </row>
+    <row r="70" spans="1:14" s="20" customFormat="1">
+      <c r="A70" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D70" s="21"/>
+    </row>
+    <row r="71" spans="1:14" s="20" customFormat="1">
+      <c r="A71" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C71" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D71" s="21"/>
+    </row>
+    <row r="72" spans="1:14" s="20" customFormat="1">
+      <c r="A72" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="B45" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="C45" s="25" t="s">
+      <c r="B72" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="D72" s="21"/>
+    </row>
+    <row r="73" spans="1:14" s="37" customFormat="1">
+      <c r="A73" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B73" s="35"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="35"/>
+      <c r="I73" s="35"/>
+      <c r="J73" s="35"/>
+      <c r="K73" s="35"/>
+      <c r="L73" s="35"/>
+      <c r="M73" s="35"/>
+      <c r="N73" s="36"/>
+    </row>
+    <row r="74" spans="1:14" s="20" customFormat="1">
+      <c r="A74" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D74" s="21"/>
+    </row>
+    <row r="75" spans="1:14" s="37" customFormat="1">
+      <c r="A75" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B75" s="35"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="35"/>
+      <c r="I75" s="35"/>
+      <c r="J75" s="35"/>
+      <c r="K75" s="35"/>
+      <c r="L75" s="35"/>
+      <c r="M75" s="35"/>
+      <c r="N75" s="36"/>
+    </row>
+    <row r="76" spans="1:14" s="20" customFormat="1">
+      <c r="A76" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C76" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="D45" s="25"/>
-    </row>
-    <row r="46" spans="1:14" s="22" customFormat="1">
-      <c r="A46" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="20"/>
-      <c r="N46" s="21"/>
-    </row>
-    <row r="47" spans="1:14" s="24" customFormat="1">
-      <c r="A47" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="B47" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="C47" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="D47" s="25"/>
-    </row>
-    <row r="48" spans="1:14" s="24" customFormat="1">
-      <c r="A48" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="B48" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D48" s="25"/>
-    </row>
-    <row r="49" spans="1:14" s="24" customFormat="1">
-      <c r="A49" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="B49" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-    </row>
-    <row r="50" spans="1:14" s="24" customFormat="1">
-      <c r="A50" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="B50" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="C50" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="D50" s="25"/>
-    </row>
-    <row r="51" spans="1:14" s="24" customFormat="1">
-      <c r="A51" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="B51" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="D51" s="25"/>
-    </row>
-    <row r="52" spans="1:14" s="24" customFormat="1">
-      <c r="A52" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="B52" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C52" s="25" t="s">
+      <c r="D76" s="21"/>
+    </row>
+    <row r="77" spans="1:14" s="37" customFormat="1">
+      <c r="A77" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B77" s="35"/>
+      <c r="C77" s="35"/>
+      <c r="D77" s="35"/>
+      <c r="E77" s="35"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="35"/>
+      <c r="H77" s="35"/>
+      <c r="I77" s="35"/>
+      <c r="J77" s="35"/>
+      <c r="K77" s="35"/>
+      <c r="L77" s="35"/>
+      <c r="M77" s="35"/>
+      <c r="N77" s="36"/>
+    </row>
+    <row r="78" spans="1:14" s="20" customFormat="1">
+      <c r="A78" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B78" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C78" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D52" s="25"/>
-    </row>
-    <row r="53" spans="1:14" s="22" customFormat="1">
-      <c r="A53" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="20"/>
-      <c r="L53" s="20"/>
-      <c r="M53" s="20"/>
-      <c r="N53" s="21"/>
-    </row>
-    <row r="54" spans="1:14" s="24" customFormat="1">
-      <c r="A54" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="B54" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="C54" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D54" s="25"/>
-    </row>
-    <row r="55" spans="1:14" s="24" customFormat="1">
-      <c r="A55" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="B55" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="C55" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D55" s="25"/>
-    </row>
-    <row r="56" spans="1:14" s="24" customFormat="1">
-      <c r="A56" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="B56" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="C56" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D56" s="25"/>
-    </row>
-    <row r="57" spans="1:14" s="24" customFormat="1">
-      <c r="A57" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="B57" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C57" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="D57" s="25"/>
-    </row>
-    <row r="58" spans="1:14" s="24" customFormat="1">
-      <c r="A58" s="28" t="s">
+      <c r="D78" s="21"/>
+    </row>
+    <row r="79" spans="1:14" s="20" customFormat="1">
+      <c r="A79" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B58" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="C58" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D58" s="25"/>
-    </row>
-    <row r="59" spans="1:14" s="22" customFormat="1">
-      <c r="A59" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B59" s="20"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="20"/>
-      <c r="K59" s="20"/>
-      <c r="L59" s="20"/>
-      <c r="M59" s="20"/>
-      <c r="N59" s="21"/>
-    </row>
-    <row r="60" spans="1:14" s="24" customFormat="1">
-      <c r="A60" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="B60" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="C60" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="D60" s="25"/>
-    </row>
-    <row r="61" spans="1:14" s="24" customFormat="1">
-      <c r="A61" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="B61" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="C61" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="D61" s="25"/>
-    </row>
-    <row r="62" spans="1:14" s="24" customFormat="1">
-      <c r="A62" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="B62" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="C62" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="D62" s="25"/>
-    </row>
-    <row r="63" spans="1:14" s="24" customFormat="1">
-      <c r="A63" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="B63" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="C63" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="D63" s="25"/>
-    </row>
-    <row r="64" spans="1:14" s="22" customFormat="1">
-      <c r="A64" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B64" s="20"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="20"/>
-      <c r="K64" s="20"/>
-      <c r="L64" s="20"/>
-      <c r="M64" s="20"/>
-      <c r="N64" s="21"/>
-    </row>
-    <row r="65" spans="1:14" s="24" customFormat="1">
-      <c r="A65" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="B65" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C65" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="D65" s="25"/>
-    </row>
-    <row r="66" spans="1:14" s="24" customFormat="1">
-      <c r="A66" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="B66" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="C66" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D66" s="25"/>
-    </row>
-    <row r="67" spans="1:14" s="24" customFormat="1">
-      <c r="A67" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="B67" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="C67" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D67" s="25"/>
-    </row>
-    <row r="68" spans="1:14" s="24" customFormat="1">
-      <c r="A68" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="B68" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="C68" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="D68" s="25"/>
-    </row>
-    <row r="69" spans="1:14" s="22" customFormat="1">
-      <c r="A69" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B69" s="20"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="20"/>
-      <c r="J69" s="20"/>
-      <c r="K69" s="20"/>
-      <c r="L69" s="20"/>
-      <c r="M69" s="20"/>
-      <c r="N69" s="21"/>
-    </row>
-    <row r="70" spans="1:14" s="24" customFormat="1">
-      <c r="A70" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="B70" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C70" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D70" s="25"/>
-    </row>
-    <row r="71" spans="1:14" s="22" customFormat="1">
-      <c r="A71" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B71" s="20"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="20"/>
-      <c r="I71" s="20"/>
-      <c r="J71" s="20"/>
-      <c r="K71" s="20"/>
-      <c r="L71" s="20"/>
-      <c r="M71" s="20"/>
-      <c r="N71" s="21"/>
-    </row>
-    <row r="72" spans="1:14" s="24" customFormat="1">
-      <c r="A72" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="B72" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="C72" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="D72" s="25"/>
-    </row>
-    <row r="73" spans="1:14" s="22" customFormat="1">
-      <c r="A73" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B73" s="20"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="20"/>
-      <c r="J73" s="20"/>
-      <c r="K73" s="20"/>
-      <c r="L73" s="20"/>
-      <c r="M73" s="20"/>
-      <c r="N73" s="21"/>
-    </row>
-    <row r="74" spans="1:14" s="24" customFormat="1">
-      <c r="A74" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="B74" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="C74" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="D74" s="25"/>
-    </row>
-    <row r="75" spans="1:14" s="24" customFormat="1">
-      <c r="A75" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="B75" s="24" t="s">
+      <c r="B79" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="C75" s="25" t="s">
+      <c r="C79" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="D75" s="25"/>
-    </row>
-    <row r="76" spans="1:14" s="24" customFormat="1">
-      <c r="A76" s="25"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
-    </row>
-    <row r="77" spans="1:14" s="24" customFormat="1">
-      <c r="A77" s="25"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="25"/>
-    </row>
-    <row r="78" spans="1:14" s="24" customFormat="1">
-      <c r="A78" s="25"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="25"/>
-    </row>
-    <row r="79" spans="1:14" s="24" customFormat="1">
-      <c r="A79" s="25"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="25"/>
-    </row>
-    <row r="80" spans="1:14" s="24" customFormat="1">
-      <c r="A80" s="25"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="25"/>
-    </row>
-    <row r="81" spans="1:4" s="24" customFormat="1">
-      <c r="A81" s="25"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="25"/>
-    </row>
-    <row r="82" spans="1:4" s="24" customFormat="1">
-      <c r="A82" s="25"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="25"/>
-    </row>
-    <row r="83" spans="1:4" s="24" customFormat="1">
-      <c r="A83" s="25"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="25"/>
-    </row>
-    <row r="84" spans="1:4" s="24" customFormat="1">
-      <c r="A84" s="25"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="25"/>
-    </row>
-    <row r="85" spans="1:4" s="24" customFormat="1">
-      <c r="A85" s="25"/>
-      <c r="C85" s="25"/>
-      <c r="D85" s="25"/>
-    </row>
-    <row r="86" spans="1:4" s="24" customFormat="1">
-      <c r="A86" s="25"/>
-      <c r="C86" s="25"/>
-      <c r="D86" s="25"/>
-    </row>
-    <row r="87" spans="1:4" s="24" customFormat="1">
-      <c r="A87" s="25"/>
-      <c r="C87" s="25"/>
-      <c r="D87" s="25"/>
-    </row>
-    <row r="88" spans="1:4" s="24" customFormat="1">
-      <c r="A88" s="25"/>
-      <c r="C88" s="25"/>
-      <c r="D88" s="25"/>
-    </row>
-    <row r="89" spans="1:4" s="24" customFormat="1">
-      <c r="A89" s="25"/>
-      <c r="C89" s="25"/>
-      <c r="D89" s="25"/>
-    </row>
-    <row r="90" spans="1:4" s="24" customFormat="1">
-      <c r="A90" s="25"/>
-      <c r="C90" s="25"/>
-      <c r="D90" s="25"/>
-    </row>
-    <row r="91" spans="1:4" s="24" customFormat="1">
-      <c r="A91" s="25"/>
-      <c r="C91" s="25"/>
-      <c r="D91" s="25"/>
-    </row>
-    <row r="92" spans="1:4" s="24" customFormat="1">
-      <c r="A92" s="25"/>
-      <c r="C92" s="25"/>
-      <c r="D92" s="25"/>
-    </row>
-    <row r="93" spans="1:4" s="24" customFormat="1">
-      <c r="A93" s="25"/>
-      <c r="C93" s="25"/>
-      <c r="D93" s="25"/>
-    </row>
-    <row r="94" spans="1:4" s="24" customFormat="1">
-      <c r="A94" s="25"/>
-      <c r="C94" s="25"/>
-      <c r="D94" s="25"/>
-    </row>
-    <row r="95" spans="1:4" s="24" customFormat="1">
-      <c r="A95" s="25"/>
-      <c r="C95" s="25"/>
-      <c r="D95" s="25"/>
-    </row>
-    <row r="96" spans="1:4" s="24" customFormat="1">
-      <c r="A96" s="25"/>
-      <c r="C96" s="25"/>
-      <c r="D96" s="25"/>
-    </row>
-    <row r="97" spans="1:13" s="24" customFormat="1">
-      <c r="A97" s="25"/>
-      <c r="C97" s="25"/>
-      <c r="D97" s="25"/>
-    </row>
-    <row r="98" spans="1:13">
-      <c r="A98" s="32"/>
-      <c r="B98" s="33"/>
-      <c r="C98" s="32"/>
-      <c r="D98" s="32"/>
-      <c r="E98" s="34"/>
-      <c r="F98" s="34"/>
-      <c r="G98" s="34"/>
-      <c r="H98" s="34"/>
-      <c r="I98" s="34"/>
-      <c r="J98" s="34"/>
-      <c r="K98" s="34"/>
-      <c r="L98" s="34"/>
-      <c r="M98" s="35"/>
-    </row>
-    <row r="99" spans="1:13">
-      <c r="A99" s="32"/>
-      <c r="B99" s="33"/>
-      <c r="C99" s="32"/>
-      <c r="D99" s="32"/>
-      <c r="E99" s="34"/>
-      <c r="F99" s="34"/>
-      <c r="G99" s="34"/>
-      <c r="H99" s="34"/>
-      <c r="I99" s="34"/>
-      <c r="J99" s="34"/>
-      <c r="K99" s="34"/>
-      <c r="L99" s="34"/>
-      <c r="M99" s="35"/>
-    </row>
-    <row r="100" spans="1:13">
-      <c r="A100" s="32"/>
-      <c r="B100" s="33"/>
-      <c r="C100" s="32"/>
-      <c r="D100" s="32"/>
-      <c r="E100" s="34"/>
-      <c r="F100" s="34"/>
-      <c r="G100" s="34"/>
-      <c r="H100" s="34"/>
-      <c r="I100" s="34"/>
-      <c r="J100" s="34"/>
-      <c r="K100" s="34"/>
-      <c r="L100" s="34"/>
-      <c r="M100" s="35"/>
-    </row>
-    <row r="101" spans="1:13">
-      <c r="A101" s="32"/>
-      <c r="B101" s="33"/>
-      <c r="C101" s="32"/>
-      <c r="D101" s="32"/>
-      <c r="E101" s="34"/>
-      <c r="F101" s="34"/>
-      <c r="G101" s="34"/>
-      <c r="H101" s="34"/>
-      <c r="I101" s="34"/>
-      <c r="J101" s="34"/>
-      <c r="K101" s="34"/>
-      <c r="L101" s="34"/>
-      <c r="M101" s="35"/>
+      <c r="D79" s="21"/>
+    </row>
+    <row r="80" spans="1:14" s="20" customFormat="1">
+      <c r="A80" s="21"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="21"/>
+    </row>
+    <row r="81" spans="1:4" s="20" customFormat="1">
+      <c r="A81" s="21"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+    </row>
+    <row r="82" spans="1:4" s="20" customFormat="1">
+      <c r="A82" s="21"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+    </row>
+    <row r="83" spans="1:4" s="20" customFormat="1">
+      <c r="A83" s="21"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
+    </row>
+    <row r="84" spans="1:4" s="20" customFormat="1">
+      <c r="A84" s="21"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
+    </row>
+    <row r="85" spans="1:4" s="20" customFormat="1">
+      <c r="A85" s="21"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
+    </row>
+    <row r="86" spans="1:4" s="20" customFormat="1">
+      <c r="A86" s="21"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
+    </row>
+    <row r="87" spans="1:4" s="20" customFormat="1">
+      <c r="A87" s="21"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
+    </row>
+    <row r="88" spans="1:4" s="20" customFormat="1">
+      <c r="A88" s="21"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="21"/>
+    </row>
+    <row r="89" spans="1:4" s="20" customFormat="1">
+      <c r="A89" s="21"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="21"/>
+    </row>
+    <row r="90" spans="1:4" s="20" customFormat="1">
+      <c r="A90" s="21"/>
+      <c r="C90" s="21"/>
+      <c r="D90" s="21"/>
+    </row>
+    <row r="91" spans="1:4" s="20" customFormat="1">
+      <c r="A91" s="21"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="21"/>
+    </row>
+    <row r="92" spans="1:4" s="20" customFormat="1">
+      <c r="A92" s="21"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="21"/>
+    </row>
+    <row r="93" spans="1:4" s="20" customFormat="1">
+      <c r="A93" s="21"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="21"/>
+    </row>
+    <row r="94" spans="1:4" s="20" customFormat="1">
+      <c r="A94" s="21"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="21"/>
+    </row>
+    <row r="95" spans="1:4" s="20" customFormat="1">
+      <c r="A95" s="21"/>
+      <c r="C95" s="21"/>
+      <c r="D95" s="21"/>
+    </row>
+    <row r="96" spans="1:4" s="20" customFormat="1">
+      <c r="A96" s="21"/>
+      <c r="C96" s="21"/>
+      <c r="D96" s="21"/>
+    </row>
+    <row r="97" spans="1:13" s="20" customFormat="1">
+      <c r="A97" s="21"/>
+      <c r="C97" s="21"/>
+      <c r="D97" s="21"/>
+    </row>
+    <row r="98" spans="1:13" s="20" customFormat="1">
+      <c r="A98" s="21"/>
+      <c r="C98" s="21"/>
+      <c r="D98" s="21"/>
+    </row>
+    <row r="99" spans="1:13" s="20" customFormat="1">
+      <c r="A99" s="21"/>
+      <c r="C99" s="21"/>
+      <c r="D99" s="21"/>
+    </row>
+    <row r="100" spans="1:13" s="20" customFormat="1">
+      <c r="A100" s="21"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="21"/>
+    </row>
+    <row r="101" spans="1:13" s="20" customFormat="1">
+      <c r="A101" s="21"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="21"/>
     </row>
     <row r="102" spans="1:13">
-      <c r="A102" s="32"/>
-      <c r="B102" s="33"/>
-      <c r="C102" s="32"/>
-      <c r="D102" s="32"/>
-      <c r="E102" s="34"/>
-      <c r="F102" s="34"/>
-      <c r="G102" s="34"/>
-      <c r="H102" s="34"/>
-      <c r="I102" s="34"/>
-      <c r="J102" s="34"/>
-      <c r="K102" s="34"/>
-      <c r="L102" s="34"/>
-      <c r="M102" s="35"/>
+      <c r="A102" s="28"/>
+      <c r="B102" s="29"/>
+      <c r="C102" s="28"/>
+      <c r="D102" s="28"/>
+      <c r="E102" s="30"/>
+      <c r="F102" s="30"/>
+      <c r="G102" s="30"/>
+      <c r="H102" s="30"/>
+      <c r="I102" s="30"/>
+      <c r="J102" s="30"/>
+      <c r="K102" s="30"/>
+      <c r="L102" s="30"/>
+      <c r="M102" s="31"/>
     </row>
     <row r="103" spans="1:13">
-      <c r="A103" s="32"/>
-      <c r="B103" s="33"/>
-      <c r="C103" s="32"/>
-      <c r="D103" s="32"/>
-      <c r="E103" s="34"/>
-      <c r="F103" s="34"/>
-      <c r="G103" s="34"/>
-      <c r="H103" s="34"/>
-      <c r="I103" s="34"/>
-      <c r="J103" s="34"/>
-      <c r="K103" s="34"/>
-      <c r="L103" s="34"/>
-      <c r="M103" s="35"/>
+      <c r="A103" s="28"/>
+      <c r="B103" s="29"/>
+      <c r="C103" s="28"/>
+      <c r="D103" s="28"/>
+      <c r="E103" s="30"/>
+      <c r="F103" s="30"/>
+      <c r="G103" s="30"/>
+      <c r="H103" s="30"/>
+      <c r="I103" s="30"/>
+      <c r="J103" s="30"/>
+      <c r="K103" s="30"/>
+      <c r="L103" s="30"/>
+      <c r="M103" s="31"/>
     </row>
     <row r="104" spans="1:13">
-      <c r="A104" s="32"/>
-      <c r="B104" s="33"/>
-      <c r="C104" s="32"/>
-      <c r="D104" s="32"/>
-      <c r="E104" s="34"/>
-      <c r="F104" s="34"/>
-      <c r="G104" s="34"/>
-      <c r="H104" s="34"/>
-      <c r="I104" s="34"/>
-      <c r="J104" s="34"/>
-      <c r="K104" s="34"/>
-      <c r="L104" s="34"/>
-      <c r="M104" s="35"/>
+      <c r="A104" s="28"/>
+      <c r="B104" s="29"/>
+      <c r="C104" s="28"/>
+      <c r="D104" s="28"/>
+      <c r="E104" s="30"/>
+      <c r="F104" s="30"/>
+      <c r="G104" s="30"/>
+      <c r="H104" s="30"/>
+      <c r="I104" s="30"/>
+      <c r="J104" s="30"/>
+      <c r="K104" s="30"/>
+      <c r="L104" s="30"/>
+      <c r="M104" s="31"/>
     </row>
     <row r="105" spans="1:13">
-      <c r="A105" s="32"/>
-      <c r="B105" s="33"/>
-      <c r="C105" s="32"/>
-      <c r="D105" s="32"/>
-      <c r="E105" s="34"/>
-      <c r="F105" s="34"/>
-      <c r="G105" s="34"/>
-      <c r="H105" s="34"/>
-      <c r="I105" s="34"/>
-      <c r="J105" s="34"/>
-      <c r="K105" s="34"/>
-      <c r="L105" s="34"/>
-      <c r="M105" s="35"/>
+      <c r="A105" s="28"/>
+      <c r="B105" s="29"/>
+      <c r="C105" s="28"/>
+      <c r="D105" s="28"/>
+      <c r="E105" s="30"/>
+      <c r="F105" s="30"/>
+      <c r="G105" s="30"/>
+      <c r="H105" s="30"/>
+      <c r="I105" s="30"/>
+      <c r="J105" s="30"/>
+      <c r="K105" s="30"/>
+      <c r="L105" s="30"/>
+      <c r="M105" s="31"/>
     </row>
     <row r="106" spans="1:13">
-      <c r="A106" s="32"/>
-      <c r="B106" s="33"/>
-      <c r="C106" s="32"/>
-      <c r="D106" s="32"/>
-      <c r="E106" s="34"/>
-      <c r="F106" s="34"/>
-      <c r="G106" s="34"/>
-      <c r="H106" s="34"/>
-      <c r="I106" s="34"/>
-      <c r="J106" s="34"/>
-      <c r="K106" s="34"/>
-      <c r="L106" s="34"/>
-      <c r="M106" s="35"/>
-    </row>
-    <row r="107" spans="1:13" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15" customHeight="1"/>
-    <row r="119" ht="15" customHeight="1"/>
-    <row r="122" ht="15" customHeight="1"/>
+      <c r="A106" s="28"/>
+      <c r="B106" s="29"/>
+      <c r="C106" s="28"/>
+      <c r="D106" s="28"/>
+      <c r="E106" s="30"/>
+      <c r="F106" s="30"/>
+      <c r="G106" s="30"/>
+      <c r="H106" s="30"/>
+      <c r="I106" s="30"/>
+      <c r="J106" s="30"/>
+      <c r="K106" s="30"/>
+      <c r="L106" s="30"/>
+      <c r="M106" s="31"/>
+    </row>
+    <row r="107" spans="1:13">
+      <c r="A107" s="28"/>
+      <c r="B107" s="29"/>
+      <c r="C107" s="28"/>
+      <c r="D107" s="28"/>
+      <c r="E107" s="30"/>
+      <c r="F107" s="30"/>
+      <c r="G107" s="30"/>
+      <c r="H107" s="30"/>
+      <c r="I107" s="30"/>
+      <c r="J107" s="30"/>
+      <c r="K107" s="30"/>
+      <c r="L107" s="30"/>
+      <c r="M107" s="31"/>
+    </row>
+    <row r="108" spans="1:13">
+      <c r="A108" s="28"/>
+      <c r="B108" s="29"/>
+      <c r="C108" s="28"/>
+      <c r="D108" s="28"/>
+      <c r="E108" s="30"/>
+      <c r="F108" s="30"/>
+      <c r="G108" s="30"/>
+      <c r="H108" s="30"/>
+      <c r="I108" s="30"/>
+      <c r="J108" s="30"/>
+      <c r="K108" s="30"/>
+      <c r="L108" s="30"/>
+      <c r="M108" s="31"/>
+    </row>
+    <row r="109" spans="1:13">
+      <c r="A109" s="28"/>
+      <c r="B109" s="29"/>
+      <c r="C109" s="28"/>
+      <c r="D109" s="28"/>
+      <c r="E109" s="30"/>
+      <c r="F109" s="30"/>
+      <c r="G109" s="30"/>
+      <c r="H109" s="30"/>
+      <c r="I109" s="30"/>
+      <c r="J109" s="30"/>
+      <c r="K109" s="30"/>
+      <c r="L109" s="30"/>
+      <c r="M109" s="31"/>
+    </row>
+    <row r="110" spans="1:13">
+      <c r="A110" s="28"/>
+      <c r="B110" s="29"/>
+      <c r="C110" s="28"/>
+      <c r="D110" s="28"/>
+      <c r="E110" s="30"/>
+      <c r="F110" s="30"/>
+      <c r="G110" s="30"/>
+      <c r="H110" s="30"/>
+      <c r="I110" s="30"/>
+      <c r="J110" s="30"/>
+      <c r="K110" s="30"/>
+      <c r="L110" s="30"/>
+      <c r="M110" s="31"/>
+    </row>
+    <row r="111" spans="1:13" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15" customHeight="1"/>
+    <row r="123" ht="15" customHeight="1"/>
     <row r="126" ht="15" customHeight="1"/>
-    <row r="131" ht="15" customHeight="1"/>
+    <row r="130" ht="15" customHeight="1"/>
     <row r="135" ht="15" customHeight="1"/>
-    <row r="136" ht="15" customHeight="1"/>
-    <row r="137" ht="15" customHeight="1"/>
-    <row r="138" ht="15" customHeight="1"/>
     <row r="139" ht="15" customHeight="1"/>
     <row r="140" ht="15" customHeight="1"/>
     <row r="141" ht="15" customHeight="1"/>
@@ -3031,21 +3104,25 @@
     <row r="144" ht="15" customHeight="1"/>
     <row r="145" ht="15" customHeight="1"/>
     <row r="146" ht="15" customHeight="1"/>
+    <row r="147" ht="15" customHeight="1"/>
     <row r="148" ht="15" customHeight="1"/>
-    <row r="161" ht="15" customHeight="1"/>
+    <row r="149" ht="15" customHeight="1"/>
+    <row r="150" ht="15" customHeight="1"/>
+    <row r="152" ht="15" customHeight="1"/>
+    <row r="165" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A77:XFD77"/>
     <mergeCell ref="A73:XFD73"/>
-    <mergeCell ref="A69:XFD69"/>
-    <mergeCell ref="A46:XFD46"/>
-    <mergeCell ref="A25:XFD25"/>
+    <mergeCell ref="A49:XFD49"/>
+    <mergeCell ref="A26:XFD26"/>
     <mergeCell ref="A2:XFD2"/>
-    <mergeCell ref="A64:XFD64"/>
-    <mergeCell ref="A71:XFD71"/>
+    <mergeCell ref="A68:XFD68"/>
+    <mergeCell ref="A75:XFD75"/>
     <mergeCell ref="A8:XFD8"/>
     <mergeCell ref="A16:XFD16"/>
-    <mergeCell ref="A53:XFD53"/>
-    <mergeCell ref="A59:XFD59"/>
+    <mergeCell ref="A57:XFD57"/>
+    <mergeCell ref="A63:XFD63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1.GDD/工作進度文件.xlsx
+++ b/1.GDD/工作進度文件.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="168">
   <si>
     <t>S</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -678,10 +678,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>初始音效完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6/7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -854,10 +850,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>珮君+曉芸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>鏡頭初步討論</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -906,30 +898,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AI系統設計</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第二關需求發出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI討論</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>珮君</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t/>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1134,6 +1103,193 @@
   </si>
   <si>
     <t>一人吃多次錯誤修正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>初始音效</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>工具</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>完成</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>初始音效</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>完成</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>初步</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UI討論</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>姵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>君</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>姵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>君+曉芸</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三關編輯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二關編輯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三關調整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>音效測試</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒數功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>計分功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>AI系統</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>初步整合</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1371,7 +1527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1452,6 +1608,9 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1465,7 +1624,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1761,11 +1920,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N165"/>
+  <dimension ref="A1:N175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18.75"/>
@@ -1780,1152 +1939,1240 @@
   <sheetData>
     <row r="1" spans="1:14" s="18" customFormat="1">
       <c r="A1" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>93</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>94</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>60</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="37" customFormat="1">
-      <c r="A2" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="36"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="38" customFormat="1">
+      <c r="A2" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="37"/>
     </row>
     <row r="3" spans="1:14" s="20" customFormat="1">
       <c r="A3" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>97</v>
-      </c>
       <c r="D3" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="20" customFormat="1">
-      <c r="A4" s="23" t="s">
-        <v>98</v>
+      <c r="A4" s="19" t="s">
+        <v>95</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="20" customFormat="1">
       <c r="A5" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="20" customFormat="1">
+      <c r="A6" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="C6" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="20" customFormat="1">
-      <c r="A6" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>58</v>
-      </c>
       <c r="D6" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="20" customFormat="1">
       <c r="A7" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="20" customFormat="1">
+      <c r="A8" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="37" customFormat="1">
-      <c r="A8" s="34" t="s">
+      <c r="D8" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="38" customFormat="1">
+      <c r="A9" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="36"/>
-    </row>
-    <row r="9" spans="1:14" s="20" customFormat="1">
-      <c r="A9" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>76</v>
-      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="37"/>
     </row>
     <row r="10" spans="1:14" s="20" customFormat="1">
       <c r="A10" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>106</v>
+        <v>95</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>161</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="20" customFormat="1">
       <c r="A11" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>71</v>
-      </c>
       <c r="C11" s="21" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="20" customFormat="1">
       <c r="A12" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="D12" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="20" customFormat="1">
+      <c r="A13" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="20" customFormat="1">
+      <c r="A14" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="20" customFormat="1">
+      <c r="A15" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C15" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="20" customFormat="1">
+      <c r="A16" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" s="20" customFormat="1">
-      <c r="A13" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13" s="20" t="s">
+      <c r="B16" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C16" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="20" customFormat="1">
+      <c r="A17" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="38" customFormat="1">
+      <c r="A18" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="37"/>
+    </row>
+    <row r="19" spans="1:14" s="20" customFormat="1">
+      <c r="A19" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="20" customFormat="1">
+      <c r="A20" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D13" s="22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" s="20" customFormat="1">
-      <c r="A14" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14" s="20" t="s">
+      <c r="C20" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="20" customFormat="1">
+      <c r="A21" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="20" customFormat="1">
+      <c r="A22" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="20" customFormat="1">
-      <c r="A15" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" s="37" customFormat="1">
-      <c r="A16" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="36"/>
-    </row>
-    <row r="17" spans="1:14" s="20" customFormat="1">
-      <c r="A17" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" s="20" customFormat="1">
-      <c r="A18" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" s="20" customFormat="1">
-      <c r="A19" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" s="20" customFormat="1">
-      <c r="A20" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" s="20" customFormat="1">
-      <c r="A21" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" s="20" customFormat="1">
-      <c r="A22" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>58</v>
-      </c>
       <c r="D22" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="20" customFormat="1">
       <c r="A23" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="B23" s="38" t="s">
-        <v>157</v>
+        <v>100</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>87</v>
       </c>
       <c r="C23" s="21" t="s">
         <v>58</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="20" customFormat="1">
       <c r="A24" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C24" s="21" t="s">
         <v>58</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="20" customFormat="1">
       <c r="A25" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C25" s="21" t="s">
         <v>58</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" s="37" customFormat="1">
-      <c r="A26" s="34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="20" customFormat="1">
+      <c r="A26" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="20" customFormat="1">
+      <c r="A27" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="20" customFormat="1">
+      <c r="A28" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="38" customFormat="1">
+      <c r="A29" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="36"/>
-    </row>
-    <row r="27" spans="1:14" s="20" customFormat="1">
-      <c r="A27" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="D27" s="21"/>
-    </row>
-    <row r="28" spans="1:14" s="20" customFormat="1">
-      <c r="A28" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" s="21"/>
-    </row>
-    <row r="29" spans="1:14" s="20" customFormat="1">
-      <c r="A29" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="D29" s="21"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="37"/>
     </row>
     <row r="30" spans="1:14" s="20" customFormat="1">
       <c r="A30" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B30" s="20" t="s">
         <v>119</v>
       </c>
       <c r="C30" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" s="20" customFormat="1">
+      <c r="A31" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" s="20" customFormat="1">
+      <c r="A32" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" s="20" customFormat="1">
+      <c r="A33" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="21"/>
-    </row>
-    <row r="31" spans="1:14" s="20" customFormat="1">
-      <c r="A31" s="26" t="s">
+      <c r="B33" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" s="20" customFormat="1">
+      <c r="A34" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="20" customFormat="1">
+      <c r="A35" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="20" customFormat="1">
+      <c r="A36" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" s="20" customFormat="1">
+      <c r="A37" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" s="20" customFormat="1">
+      <c r="A38" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" s="38" customFormat="1">
+      <c r="A39" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="37"/>
+    </row>
+    <row r="40" spans="1:14" s="20" customFormat="1">
+      <c r="A40" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="21"/>
+    </row>
+    <row r="41" spans="1:14" s="20" customFormat="1">
+      <c r="A41" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="21"/>
+    </row>
+    <row r="42" spans="1:14" s="20" customFormat="1">
+      <c r="A42" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="21"/>
+    </row>
+    <row r="43" spans="1:14" s="20" customFormat="1">
+      <c r="A43" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" s="21"/>
+    </row>
+    <row r="44" spans="1:14" s="20" customFormat="1">
+      <c r="A44" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" s="21"/>
+    </row>
+    <row r="45" spans="1:14" s="20" customFormat="1">
+      <c r="A45" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="C45" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" s="21"/>
+    </row>
+    <row r="46" spans="1:14" s="20" customFormat="1">
+      <c r="A46" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C46" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="21"/>
+    </row>
+    <row r="47" spans="1:14" s="20" customFormat="1">
+      <c r="A47" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" s="21"/>
+    </row>
+    <row r="48" spans="1:14" s="20" customFormat="1">
+      <c r="A48" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" s="21"/>
+    </row>
+    <row r="49" spans="1:4" s="20" customFormat="1">
+      <c r="A49" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" s="21"/>
+    </row>
+    <row r="50" spans="1:4" s="20" customFormat="1">
+      <c r="A50" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="21"/>
-    </row>
-    <row r="32" spans="1:14" s="20" customFormat="1">
-      <c r="A32" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="D32" s="21"/>
-    </row>
-    <row r="33" spans="1:4" s="20" customFormat="1">
-      <c r="A33" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="B33" s="20" t="s">
+      <c r="C50" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="D50" s="21"/>
+    </row>
+    <row r="51" spans="1:4" s="20" customFormat="1">
+      <c r="A51" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C51" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51" s="21"/>
+    </row>
+    <row r="52" spans="1:4" s="20" customFormat="1">
+      <c r="A52" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D33" s="21"/>
-    </row>
-    <row r="34" spans="1:4" s="20" customFormat="1">
-      <c r="A34" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="C34" s="21" t="s">
+      <c r="B52" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D52" s="21"/>
+    </row>
+    <row r="53" spans="1:4" s="20" customFormat="1">
+      <c r="A53" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D34" s="21"/>
-    </row>
-    <row r="35" spans="1:4" s="20" customFormat="1">
-      <c r="A35" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C35" s="21" t="s">
+      <c r="B53" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D53" s="21"/>
+    </row>
+    <row r="54" spans="1:4" s="20" customFormat="1">
+      <c r="A54" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D35" s="21"/>
-    </row>
-    <row r="36" spans="1:4" s="20" customFormat="1">
-      <c r="A36" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D36" s="21"/>
-    </row>
-    <row r="37" spans="1:4" s="20" customFormat="1">
-      <c r="A37" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D37" s="21"/>
-    </row>
-    <row r="38" spans="1:4" s="20" customFormat="1">
-      <c r="A38" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="D38" s="21"/>
-    </row>
-    <row r="39" spans="1:4" s="20" customFormat="1">
-      <c r="A39" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D39" s="21"/>
-    </row>
-    <row r="40" spans="1:4" s="20" customFormat="1">
-      <c r="A40" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" s="21"/>
-    </row>
-    <row r="41" spans="1:4" s="20" customFormat="1">
-      <c r="A41" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="D41" s="21"/>
-    </row>
-    <row r="42" spans="1:4" s="20" customFormat="1">
-      <c r="A42" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" s="22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" s="20" customFormat="1">
-      <c r="A43" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="B43" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" s="22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" s="20" customFormat="1">
-      <c r="A44" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="B44" s="38" t="s">
-        <v>156</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D44" s="22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" s="20" customFormat="1">
-      <c r="A45" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="B45" s="38" t="s">
+      <c r="B54" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C54" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="C45" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D45" s="22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" s="20" customFormat="1">
-      <c r="A46" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46" s="21"/>
-    </row>
-    <row r="47" spans="1:4" s="20" customFormat="1">
-      <c r="A47" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C47" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D47" s="21"/>
-    </row>
-    <row r="48" spans="1:4" s="20" customFormat="1">
-      <c r="A48" s="27" t="s">
+      <c r="D54" s="21"/>
+    </row>
+    <row r="55" spans="1:4" s="20" customFormat="1">
+      <c r="A55" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B55" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="B48" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D48" s="21"/>
-    </row>
-    <row r="49" spans="1:14" s="37" customFormat="1">
-      <c r="A49" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="B49" s="35"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="35"/>
-      <c r="N49" s="36"/>
-    </row>
-    <row r="50" spans="1:14" s="20" customFormat="1">
-      <c r="A50" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="C50" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D50" s="21"/>
-    </row>
-    <row r="51" spans="1:14" s="20" customFormat="1">
-      <c r="A51" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D51" s="21"/>
-    </row>
-    <row r="52" spans="1:14" s="20" customFormat="1">
-      <c r="A52" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-    </row>
-    <row r="53" spans="1:14" s="20" customFormat="1">
-      <c r="A53" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="C53" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D53" s="21"/>
-    </row>
-    <row r="54" spans="1:14" s="20" customFormat="1">
-      <c r="A54" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C54" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D54" s="21"/>
-    </row>
-    <row r="55" spans="1:14" s="20" customFormat="1">
-      <c r="A55" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="B55" s="20" t="s">
-        <v>132</v>
-      </c>
       <c r="C55" s="21" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="D55" s="21"/>
     </row>
-    <row r="56" spans="1:14" s="20" customFormat="1">
+    <row r="56" spans="1:4" s="20" customFormat="1">
       <c r="A56" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>72</v>
+        <v>100</v>
+      </c>
+      <c r="B56" s="34" t="s">
+        <v>164</v>
       </c>
       <c r="C56" s="21" t="s">
         <v>58</v>
       </c>
       <c r="D56" s="21"/>
     </row>
-    <row r="57" spans="1:14" s="37" customFormat="1">
-      <c r="A57" s="34" t="s">
+    <row r="57" spans="1:4" s="20" customFormat="1">
+      <c r="A57" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B57" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57" s="21"/>
+    </row>
+    <row r="58" spans="1:4" s="20" customFormat="1">
+      <c r="A58" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B58" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D58" s="21"/>
+    </row>
+    <row r="59" spans="1:4" s="20" customFormat="1">
+      <c r="A59" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59" s="21"/>
+    </row>
+    <row r="60" spans="1:4" s="20" customFormat="1">
+      <c r="A60" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D60" s="21"/>
+    </row>
+    <row r="61" spans="1:4" s="20" customFormat="1">
+      <c r="A61" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D61" s="21"/>
+    </row>
+    <row r="62" spans="1:4" s="20" customFormat="1">
+      <c r="A62" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D62" s="21"/>
+    </row>
+    <row r="63" spans="1:4" s="20" customFormat="1">
+      <c r="A63" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D63" s="21"/>
+    </row>
+    <row r="64" spans="1:4" s="20" customFormat="1">
+      <c r="A64" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D64" s="21"/>
+    </row>
+    <row r="65" spans="1:14" s="20" customFormat="1">
+      <c r="A65" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D65" s="21"/>
+    </row>
+    <row r="66" spans="1:14" s="38" customFormat="1">
+      <c r="A66" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="35"/>
-      <c r="C57" s="35"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="35"/>
-      <c r="I57" s="35"/>
-      <c r="J57" s="35"/>
-      <c r="K57" s="35"/>
-      <c r="L57" s="35"/>
-      <c r="M57" s="35"/>
-      <c r="N57" s="36"/>
-    </row>
-    <row r="58" spans="1:14" s="20" customFormat="1">
-      <c r="A58" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="B58" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="C58" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D58" s="21"/>
-    </row>
-    <row r="59" spans="1:14" s="20" customFormat="1">
-      <c r="A59" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="B59" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="C59" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D59" s="21"/>
-    </row>
-    <row r="60" spans="1:14" s="20" customFormat="1">
-      <c r="A60" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="B60" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="C60" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D60" s="21"/>
-    </row>
-    <row r="61" spans="1:14" s="20" customFormat="1">
-      <c r="A61" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C61" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D61" s="21"/>
-    </row>
-    <row r="62" spans="1:14" s="20" customFormat="1">
-      <c r="A62" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="B62" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="C62" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D62" s="21"/>
-    </row>
-    <row r="63" spans="1:14" s="37" customFormat="1">
-      <c r="A63" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63" s="35"/>
-      <c r="C63" s="35"/>
-      <c r="D63" s="35"/>
-      <c r="E63" s="35"/>
-      <c r="F63" s="35"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="35"/>
-      <c r="I63" s="35"/>
-      <c r="J63" s="35"/>
-      <c r="K63" s="35"/>
-      <c r="L63" s="35"/>
-      <c r="M63" s="35"/>
-      <c r="N63" s="36"/>
-    </row>
-    <row r="64" spans="1:14" s="20" customFormat="1">
-      <c r="A64" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="B64" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="C64" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D64" s="21"/>
-    </row>
-    <row r="65" spans="1:14" s="20" customFormat="1">
-      <c r="A65" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="B65" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="C65" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D65" s="21"/>
-    </row>
-    <row r="66" spans="1:14" s="20" customFormat="1">
-      <c r="A66" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="B66" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="C66" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D66" s="21"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="36"/>
+      <c r="J66" s="36"/>
+      <c r="K66" s="36"/>
+      <c r="L66" s="36"/>
+      <c r="M66" s="36"/>
+      <c r="N66" s="37"/>
     </row>
     <row r="67" spans="1:14" s="20" customFormat="1">
-      <c r="A67" s="24" t="s">
-        <v>139</v>
+      <c r="A67" s="19" t="s">
+        <v>102</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>69</v>
+        <v>135</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="D67" s="21"/>
     </row>
-    <row r="68" spans="1:14" s="37" customFormat="1">
-      <c r="A68" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="B68" s="35"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="35"/>
-      <c r="I68" s="35"/>
-      <c r="J68" s="35"/>
-      <c r="K68" s="35"/>
-      <c r="L68" s="35"/>
-      <c r="M68" s="35"/>
-      <c r="N68" s="36"/>
+    <row r="68" spans="1:14" s="20" customFormat="1">
+      <c r="A68" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D68" s="21"/>
     </row>
     <row r="69" spans="1:14" s="20" customFormat="1">
       <c r="A69" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="D69" s="21"/>
     </row>
     <row r="70" spans="1:14" s="20" customFormat="1">
-      <c r="A70" s="19" t="s">
-        <v>103</v>
+      <c r="A70" s="23" t="s">
+        <v>97</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>147</v>
+        <v>67</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="D70" s="21"/>
     </row>
     <row r="71" spans="1:14" s="20" customFormat="1">
       <c r="A71" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D71" s="21"/>
     </row>
     <row r="72" spans="1:14" s="20" customFormat="1">
       <c r="A72" s="27" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="D72" s="21"/>
     </row>
-    <row r="73" spans="1:14" s="37" customFormat="1">
-      <c r="A73" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="B73" s="35"/>
-      <c r="C73" s="35"/>
-      <c r="D73" s="35"/>
-      <c r="E73" s="35"/>
-      <c r="F73" s="35"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="35"/>
-      <c r="I73" s="35"/>
-      <c r="J73" s="35"/>
-      <c r="K73" s="35"/>
-      <c r="L73" s="35"/>
-      <c r="M73" s="35"/>
-      <c r="N73" s="36"/>
+    <row r="73" spans="1:14" s="38" customFormat="1">
+      <c r="A73" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B73" s="36"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="36"/>
+      <c r="I73" s="36"/>
+      <c r="J73" s="36"/>
+      <c r="K73" s="36"/>
+      <c r="L73" s="36"/>
+      <c r="M73" s="36"/>
+      <c r="N73" s="37"/>
     </row>
     <row r="74" spans="1:14" s="20" customFormat="1">
-      <c r="A74" s="24" t="s">
+      <c r="A74" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D74" s="21"/>
+    </row>
+    <row r="75" spans="1:14" s="20" customFormat="1">
+      <c r="A75" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D75" s="21"/>
+    </row>
+    <row r="76" spans="1:14" s="20" customFormat="1">
+      <c r="A76" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D76" s="21"/>
+    </row>
+    <row r="77" spans="1:14" s="20" customFormat="1">
+      <c r="A77" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D77" s="21"/>
+    </row>
+    <row r="78" spans="1:14" s="38" customFormat="1">
+      <c r="A78" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B78" s="36"/>
+      <c r="C78" s="36"/>
+      <c r="D78" s="36"/>
+      <c r="E78" s="36"/>
+      <c r="F78" s="36"/>
+      <c r="G78" s="36"/>
+      <c r="H78" s="36"/>
+      <c r="I78" s="36"/>
+      <c r="J78" s="36"/>
+      <c r="K78" s="36"/>
+      <c r="L78" s="36"/>
+      <c r="M78" s="36"/>
+      <c r="N78" s="37"/>
+    </row>
+    <row r="79" spans="1:14" s="20" customFormat="1">
+      <c r="A79" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C79" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D79" s="21"/>
+    </row>
+    <row r="80" spans="1:14" s="20" customFormat="1">
+      <c r="A80" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D80" s="21"/>
+    </row>
+    <row r="81" spans="1:14" s="20" customFormat="1">
+      <c r="A81" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C81" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D81" s="21"/>
+    </row>
+    <row r="82" spans="1:14" s="20" customFormat="1">
+      <c r="A82" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C82" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D82" s="21"/>
+    </row>
+    <row r="83" spans="1:14" s="38" customFormat="1">
+      <c r="A83" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B83" s="36"/>
+      <c r="C83" s="36"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="36"/>
+      <c r="F83" s="36"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="36"/>
+      <c r="I83" s="36"/>
+      <c r="J83" s="36"/>
+      <c r="K83" s="36"/>
+      <c r="L83" s="36"/>
+      <c r="M83" s="36"/>
+      <c r="N83" s="37"/>
+    </row>
+    <row r="84" spans="1:14" s="20" customFormat="1">
+      <c r="A84" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D84" s="21"/>
+    </row>
+    <row r="85" spans="1:14" s="38" customFormat="1">
+      <c r="A85" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B85" s="36"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="36"/>
+      <c r="E85" s="36"/>
+      <c r="F85" s="36"/>
+      <c r="G85" s="36"/>
+      <c r="H85" s="36"/>
+      <c r="I85" s="36"/>
+      <c r="J85" s="36"/>
+      <c r="K85" s="36"/>
+      <c r="L85" s="36"/>
+      <c r="M85" s="36"/>
+      <c r="N85" s="37"/>
+    </row>
+    <row r="86" spans="1:14" s="20" customFormat="1">
+      <c r="A86" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B86" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C86" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D86" s="21"/>
+    </row>
+    <row r="87" spans="1:14" s="38" customFormat="1">
+      <c r="A87" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B87" s="36"/>
+      <c r="C87" s="36"/>
+      <c r="D87" s="36"/>
+      <c r="E87" s="36"/>
+      <c r="F87" s="36"/>
+      <c r="G87" s="36"/>
+      <c r="H87" s="36"/>
+      <c r="I87" s="36"/>
+      <c r="J87" s="36"/>
+      <c r="K87" s="36"/>
+      <c r="L87" s="36"/>
+      <c r="M87" s="36"/>
+      <c r="N87" s="37"/>
+    </row>
+    <row r="88" spans="1:14" s="20" customFormat="1">
+      <c r="A88" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B88" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C88" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D88" s="21"/>
+    </row>
+    <row r="89" spans="1:14" s="20" customFormat="1">
+      <c r="A89" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B89" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C89" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="B74" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C74" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D74" s="21"/>
-    </row>
-    <row r="75" spans="1:14" s="37" customFormat="1">
-      <c r="A75" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="B75" s="35"/>
-      <c r="C75" s="35"/>
-      <c r="D75" s="35"/>
-      <c r="E75" s="35"/>
-      <c r="F75" s="35"/>
-      <c r="G75" s="35"/>
-      <c r="H75" s="35"/>
-      <c r="I75" s="35"/>
-      <c r="J75" s="35"/>
-      <c r="K75" s="35"/>
-      <c r="L75" s="35"/>
-      <c r="M75" s="35"/>
-      <c r="N75" s="36"/>
-    </row>
-    <row r="76" spans="1:14" s="20" customFormat="1">
-      <c r="A76" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="B76" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="C76" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D76" s="21"/>
-    </row>
-    <row r="77" spans="1:14" s="37" customFormat="1">
-      <c r="A77" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="B77" s="35"/>
-      <c r="C77" s="35"/>
-      <c r="D77" s="35"/>
-      <c r="E77" s="35"/>
-      <c r="F77" s="35"/>
-      <c r="G77" s="35"/>
-      <c r="H77" s="35"/>
-      <c r="I77" s="35"/>
-      <c r="J77" s="35"/>
-      <c r="K77" s="35"/>
-      <c r="L77" s="35"/>
-      <c r="M77" s="35"/>
-      <c r="N77" s="36"/>
-    </row>
-    <row r="78" spans="1:14" s="20" customFormat="1">
-      <c r="A78" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="B78" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="C78" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D78" s="21"/>
-    </row>
-    <row r="79" spans="1:14" s="20" customFormat="1">
-      <c r="A79" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="B79" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C79" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="D79" s="21"/>
-    </row>
-    <row r="80" spans="1:14" s="20" customFormat="1">
-      <c r="A80" s="21"/>
-      <c r="C80" s="21"/>
-      <c r="D80" s="21"/>
-    </row>
-    <row r="81" spans="1:4" s="20" customFormat="1">
-      <c r="A81" s="21"/>
-      <c r="C81" s="21"/>
-      <c r="D81" s="21"/>
-    </row>
-    <row r="82" spans="1:4" s="20" customFormat="1">
-      <c r="A82" s="21"/>
-      <c r="C82" s="21"/>
-      <c r="D82" s="21"/>
-    </row>
-    <row r="83" spans="1:4" s="20" customFormat="1">
-      <c r="A83" s="21"/>
-      <c r="C83" s="21"/>
-      <c r="D83" s="21"/>
-    </row>
-    <row r="84" spans="1:4" s="20" customFormat="1">
-      <c r="A84" s="21"/>
-      <c r="C84" s="21"/>
-      <c r="D84" s="21"/>
-    </row>
-    <row r="85" spans="1:4" s="20" customFormat="1">
-      <c r="A85" s="21"/>
-      <c r="C85" s="21"/>
-      <c r="D85" s="21"/>
-    </row>
-    <row r="86" spans="1:4" s="20" customFormat="1">
-      <c r="A86" s="21"/>
-      <c r="C86" s="21"/>
-      <c r="D86" s="21"/>
-    </row>
-    <row r="87" spans="1:4" s="20" customFormat="1">
-      <c r="A87" s="21"/>
-      <c r="C87" s="21"/>
-      <c r="D87" s="21"/>
-    </row>
-    <row r="88" spans="1:4" s="20" customFormat="1">
-      <c r="A88" s="21"/>
-      <c r="C88" s="21"/>
-      <c r="D88" s="21"/>
-    </row>
-    <row r="89" spans="1:4" s="20" customFormat="1">
-      <c r="A89" s="21"/>
-      <c r="C89" s="21"/>
       <c r="D89" s="21"/>
     </row>
-    <row r="90" spans="1:4" s="20" customFormat="1">
+    <row r="90" spans="1:14" s="20" customFormat="1">
       <c r="A90" s="21"/>
       <c r="C90" s="21"/>
       <c r="D90" s="21"/>
     </row>
-    <row r="91" spans="1:4" s="20" customFormat="1">
+    <row r="91" spans="1:14" s="20" customFormat="1">
       <c r="A91" s="21"/>
       <c r="C91" s="21"/>
       <c r="D91" s="21"/>
     </row>
-    <row r="92" spans="1:4" s="20" customFormat="1">
+    <row r="92" spans="1:14" s="20" customFormat="1">
       <c r="A92" s="21"/>
       <c r="C92" s="21"/>
       <c r="D92" s="21"/>
     </row>
-    <row r="93" spans="1:4" s="20" customFormat="1">
+    <row r="93" spans="1:14" s="20" customFormat="1">
       <c r="A93" s="21"/>
       <c r="C93" s="21"/>
       <c r="D93" s="21"/>
     </row>
-    <row r="94" spans="1:4" s="20" customFormat="1">
+    <row r="94" spans="1:14" s="20" customFormat="1">
       <c r="A94" s="21"/>
       <c r="C94" s="21"/>
       <c r="D94" s="21"/>
     </row>
-    <row r="95" spans="1:4" s="20" customFormat="1">
+    <row r="95" spans="1:14" s="20" customFormat="1">
       <c r="A95" s="21"/>
       <c r="C95" s="21"/>
       <c r="D95" s="21"/>
     </row>
-    <row r="96" spans="1:4" s="20" customFormat="1">
+    <row r="96" spans="1:14" s="20" customFormat="1">
       <c r="A96" s="21"/>
       <c r="C96" s="21"/>
       <c r="D96" s="21"/>
@@ -2955,174 +3202,224 @@
       <c r="C101" s="21"/>
       <c r="D101" s="21"/>
     </row>
-    <row r="102" spans="1:13">
-      <c r="A102" s="28"/>
-      <c r="B102" s="29"/>
-      <c r="C102" s="28"/>
-      <c r="D102" s="28"/>
-      <c r="E102" s="30"/>
-      <c r="F102" s="30"/>
-      <c r="G102" s="30"/>
-      <c r="H102" s="30"/>
-      <c r="I102" s="30"/>
-      <c r="J102" s="30"/>
-      <c r="K102" s="30"/>
-      <c r="L102" s="30"/>
-      <c r="M102" s="31"/>
-    </row>
-    <row r="103" spans="1:13">
-      <c r="A103" s="28"/>
-      <c r="B103" s="29"/>
-      <c r="C103" s="28"/>
-      <c r="D103" s="28"/>
-      <c r="E103" s="30"/>
-      <c r="F103" s="30"/>
-      <c r="G103" s="30"/>
-      <c r="H103" s="30"/>
-      <c r="I103" s="30"/>
-      <c r="J103" s="30"/>
-      <c r="K103" s="30"/>
-      <c r="L103" s="30"/>
-      <c r="M103" s="31"/>
-    </row>
-    <row r="104" spans="1:13">
-      <c r="A104" s="28"/>
-      <c r="B104" s="29"/>
-      <c r="C104" s="28"/>
-      <c r="D104" s="28"/>
-      <c r="E104" s="30"/>
-      <c r="F104" s="30"/>
-      <c r="G104" s="30"/>
-      <c r="H104" s="30"/>
-      <c r="I104" s="30"/>
-      <c r="J104" s="30"/>
-      <c r="K104" s="30"/>
-      <c r="L104" s="30"/>
-      <c r="M104" s="31"/>
-    </row>
-    <row r="105" spans="1:13">
-      <c r="A105" s="28"/>
-      <c r="B105" s="29"/>
-      <c r="C105" s="28"/>
-      <c r="D105" s="28"/>
-      <c r="E105" s="30"/>
-      <c r="F105" s="30"/>
-      <c r="G105" s="30"/>
-      <c r="H105" s="30"/>
-      <c r="I105" s="30"/>
-      <c r="J105" s="30"/>
-      <c r="K105" s="30"/>
-      <c r="L105" s="30"/>
-      <c r="M105" s="31"/>
-    </row>
-    <row r="106" spans="1:13">
-      <c r="A106" s="28"/>
-      <c r="B106" s="29"/>
-      <c r="C106" s="28"/>
-      <c r="D106" s="28"/>
-      <c r="E106" s="30"/>
-      <c r="F106" s="30"/>
-      <c r="G106" s="30"/>
-      <c r="H106" s="30"/>
-      <c r="I106" s="30"/>
-      <c r="J106" s="30"/>
-      <c r="K106" s="30"/>
-      <c r="L106" s="30"/>
-      <c r="M106" s="31"/>
-    </row>
-    <row r="107" spans="1:13">
-      <c r="A107" s="28"/>
-      <c r="B107" s="29"/>
-      <c r="C107" s="28"/>
-      <c r="D107" s="28"/>
-      <c r="E107" s="30"/>
-      <c r="F107" s="30"/>
-      <c r="G107" s="30"/>
-      <c r="H107" s="30"/>
-      <c r="I107" s="30"/>
-      <c r="J107" s="30"/>
-      <c r="K107" s="30"/>
-      <c r="L107" s="30"/>
-      <c r="M107" s="31"/>
-    </row>
-    <row r="108" spans="1:13">
-      <c r="A108" s="28"/>
-      <c r="B108" s="29"/>
-      <c r="C108" s="28"/>
-      <c r="D108" s="28"/>
-      <c r="E108" s="30"/>
-      <c r="F108" s="30"/>
-      <c r="G108" s="30"/>
-      <c r="H108" s="30"/>
-      <c r="I108" s="30"/>
-      <c r="J108" s="30"/>
-      <c r="K108" s="30"/>
-      <c r="L108" s="30"/>
-      <c r="M108" s="31"/>
-    </row>
-    <row r="109" spans="1:13">
-      <c r="A109" s="28"/>
-      <c r="B109" s="29"/>
-      <c r="C109" s="28"/>
-      <c r="D109" s="28"/>
-      <c r="E109" s="30"/>
-      <c r="F109" s="30"/>
-      <c r="G109" s="30"/>
-      <c r="H109" s="30"/>
-      <c r="I109" s="30"/>
-      <c r="J109" s="30"/>
-      <c r="K109" s="30"/>
-      <c r="L109" s="30"/>
-      <c r="M109" s="31"/>
-    </row>
-    <row r="110" spans="1:13">
-      <c r="A110" s="28"/>
-      <c r="B110" s="29"/>
-      <c r="C110" s="28"/>
-      <c r="D110" s="28"/>
-      <c r="E110" s="30"/>
-      <c r="F110" s="30"/>
-      <c r="G110" s="30"/>
-      <c r="H110" s="30"/>
-      <c r="I110" s="30"/>
-      <c r="J110" s="30"/>
-      <c r="K110" s="30"/>
-      <c r="L110" s="30"/>
-      <c r="M110" s="31"/>
-    </row>
-    <row r="111" spans="1:13" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15" customHeight="1"/>
-    <row r="123" ht="15" customHeight="1"/>
-    <row r="126" ht="15" customHeight="1"/>
+    <row r="102" spans="1:13" s="20" customFormat="1">
+      <c r="A102" s="21"/>
+      <c r="C102" s="21"/>
+      <c r="D102" s="21"/>
+    </row>
+    <row r="103" spans="1:13" s="20" customFormat="1">
+      <c r="A103" s="21"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="21"/>
+    </row>
+    <row r="104" spans="1:13" s="20" customFormat="1">
+      <c r="A104" s="21"/>
+      <c r="C104" s="21"/>
+      <c r="D104" s="21"/>
+    </row>
+    <row r="105" spans="1:13" s="20" customFormat="1">
+      <c r="A105" s="21"/>
+      <c r="C105" s="21"/>
+      <c r="D105" s="21"/>
+    </row>
+    <row r="106" spans="1:13" s="20" customFormat="1">
+      <c r="A106" s="21"/>
+      <c r="C106" s="21"/>
+      <c r="D106" s="21"/>
+    </row>
+    <row r="107" spans="1:13" s="20" customFormat="1">
+      <c r="A107" s="21"/>
+      <c r="C107" s="21"/>
+      <c r="D107" s="21"/>
+    </row>
+    <row r="108" spans="1:13" s="20" customFormat="1">
+      <c r="A108" s="21"/>
+      <c r="C108" s="21"/>
+      <c r="D108" s="21"/>
+    </row>
+    <row r="109" spans="1:13" s="20" customFormat="1">
+      <c r="A109" s="21"/>
+      <c r="C109" s="21"/>
+      <c r="D109" s="21"/>
+    </row>
+    <row r="110" spans="1:13" s="20" customFormat="1">
+      <c r="A110" s="21"/>
+      <c r="C110" s="21"/>
+      <c r="D110" s="21"/>
+    </row>
+    <row r="111" spans="1:13" s="20" customFormat="1">
+      <c r="A111" s="21"/>
+      <c r="C111" s="21"/>
+      <c r="D111" s="21"/>
+    </row>
+    <row r="112" spans="1:13">
+      <c r="A112" s="28"/>
+      <c r="B112" s="29"/>
+      <c r="C112" s="28"/>
+      <c r="D112" s="28"/>
+      <c r="E112" s="30"/>
+      <c r="F112" s="30"/>
+      <c r="G112" s="30"/>
+      <c r="H112" s="30"/>
+      <c r="I112" s="30"/>
+      <c r="J112" s="30"/>
+      <c r="K112" s="30"/>
+      <c r="L112" s="30"/>
+      <c r="M112" s="31"/>
+    </row>
+    <row r="113" spans="1:13">
+      <c r="A113" s="28"/>
+      <c r="B113" s="29"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="30"/>
+      <c r="F113" s="30"/>
+      <c r="G113" s="30"/>
+      <c r="H113" s="30"/>
+      <c r="I113" s="30"/>
+      <c r="J113" s="30"/>
+      <c r="K113" s="30"/>
+      <c r="L113" s="30"/>
+      <c r="M113" s="31"/>
+    </row>
+    <row r="114" spans="1:13">
+      <c r="A114" s="28"/>
+      <c r="B114" s="29"/>
+      <c r="C114" s="28"/>
+      <c r="D114" s="28"/>
+      <c r="E114" s="30"/>
+      <c r="F114" s="30"/>
+      <c r="G114" s="30"/>
+      <c r="H114" s="30"/>
+      <c r="I114" s="30"/>
+      <c r="J114" s="30"/>
+      <c r="K114" s="30"/>
+      <c r="L114" s="30"/>
+      <c r="M114" s="31"/>
+    </row>
+    <row r="115" spans="1:13">
+      <c r="A115" s="28"/>
+      <c r="B115" s="29"/>
+      <c r="C115" s="28"/>
+      <c r="D115" s="28"/>
+      <c r="E115" s="30"/>
+      <c r="F115" s="30"/>
+      <c r="G115" s="30"/>
+      <c r="H115" s="30"/>
+      <c r="I115" s="30"/>
+      <c r="J115" s="30"/>
+      <c r="K115" s="30"/>
+      <c r="L115" s="30"/>
+      <c r="M115" s="31"/>
+    </row>
+    <row r="116" spans="1:13">
+      <c r="A116" s="28"/>
+      <c r="B116" s="29"/>
+      <c r="C116" s="28"/>
+      <c r="D116" s="28"/>
+      <c r="E116" s="30"/>
+      <c r="F116" s="30"/>
+      <c r="G116" s="30"/>
+      <c r="H116" s="30"/>
+      <c r="I116" s="30"/>
+      <c r="J116" s="30"/>
+      <c r="K116" s="30"/>
+      <c r="L116" s="30"/>
+      <c r="M116" s="31"/>
+    </row>
+    <row r="117" spans="1:13">
+      <c r="A117" s="28"/>
+      <c r="B117" s="29"/>
+      <c r="C117" s="28"/>
+      <c r="D117" s="28"/>
+      <c r="E117" s="30"/>
+      <c r="F117" s="30"/>
+      <c r="G117" s="30"/>
+      <c r="H117" s="30"/>
+      <c r="I117" s="30"/>
+      <c r="J117" s="30"/>
+      <c r="K117" s="30"/>
+      <c r="L117" s="30"/>
+      <c r="M117" s="31"/>
+    </row>
+    <row r="118" spans="1:13">
+      <c r="A118" s="28"/>
+      <c r="B118" s="29"/>
+      <c r="C118" s="28"/>
+      <c r="D118" s="28"/>
+      <c r="E118" s="30"/>
+      <c r="F118" s="30"/>
+      <c r="G118" s="30"/>
+      <c r="H118" s="30"/>
+      <c r="I118" s="30"/>
+      <c r="J118" s="30"/>
+      <c r="K118" s="30"/>
+      <c r="L118" s="30"/>
+      <c r="M118" s="31"/>
+    </row>
+    <row r="119" spans="1:13">
+      <c r="A119" s="28"/>
+      <c r="B119" s="29"/>
+      <c r="C119" s="28"/>
+      <c r="D119" s="28"/>
+      <c r="E119" s="30"/>
+      <c r="F119" s="30"/>
+      <c r="G119" s="30"/>
+      <c r="H119" s="30"/>
+      <c r="I119" s="30"/>
+      <c r="J119" s="30"/>
+      <c r="K119" s="30"/>
+      <c r="L119" s="30"/>
+      <c r="M119" s="31"/>
+    </row>
+    <row r="120" spans="1:13">
+      <c r="A120" s="28"/>
+      <c r="B120" s="29"/>
+      <c r="C120" s="28"/>
+      <c r="D120" s="28"/>
+      <c r="E120" s="30"/>
+      <c r="F120" s="30"/>
+      <c r="G120" s="30"/>
+      <c r="H120" s="30"/>
+      <c r="I120" s="30"/>
+      <c r="J120" s="30"/>
+      <c r="K120" s="30"/>
+      <c r="L120" s="30"/>
+      <c r="M120" s="31"/>
+    </row>
+    <row r="121" spans="1:13" ht="15.75" customHeight="1"/>
     <row r="130" ht="15" customHeight="1"/>
-    <row r="135" ht="15" customHeight="1"/>
-    <row r="139" ht="15" customHeight="1"/>
+    <row r="133" ht="15" customHeight="1"/>
+    <row r="136" ht="15" customHeight="1"/>
     <row r="140" ht="15" customHeight="1"/>
-    <row r="141" ht="15" customHeight="1"/>
-    <row r="142" ht="15" customHeight="1"/>
-    <row r="143" ht="15" customHeight="1"/>
-    <row r="144" ht="15" customHeight="1"/>
     <row r="145" ht="15" customHeight="1"/>
-    <row r="146" ht="15" customHeight="1"/>
-    <row r="147" ht="15" customHeight="1"/>
-    <row r="148" ht="15" customHeight="1"/>
     <row r="149" ht="15" customHeight="1"/>
     <row r="150" ht="15" customHeight="1"/>
+    <row r="151" ht="15" customHeight="1"/>
     <row r="152" ht="15" customHeight="1"/>
-    <row r="165" ht="15" customHeight="1"/>
+    <row r="153" ht="15" customHeight="1"/>
+    <row r="154" ht="15" customHeight="1"/>
+    <row r="155" ht="15" customHeight="1"/>
+    <row r="156" ht="15" customHeight="1"/>
+    <row r="157" ht="15" customHeight="1"/>
+    <row r="158" ht="15" customHeight="1"/>
+    <row r="159" ht="15" customHeight="1"/>
+    <row r="160" ht="15" customHeight="1"/>
+    <row r="162" ht="15" customHeight="1"/>
+    <row r="175" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A77:XFD77"/>
+    <mergeCell ref="A87:XFD87"/>
+    <mergeCell ref="A83:XFD83"/>
+    <mergeCell ref="A39:XFD39"/>
+    <mergeCell ref="A29:XFD29"/>
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="A78:XFD78"/>
+    <mergeCell ref="A85:XFD85"/>
+    <mergeCell ref="A9:XFD9"/>
+    <mergeCell ref="A18:XFD18"/>
+    <mergeCell ref="A66:XFD66"/>
     <mergeCell ref="A73:XFD73"/>
-    <mergeCell ref="A49:XFD49"/>
-    <mergeCell ref="A26:XFD26"/>
-    <mergeCell ref="A2:XFD2"/>
-    <mergeCell ref="A68:XFD68"/>
-    <mergeCell ref="A75:XFD75"/>
-    <mergeCell ref="A8:XFD8"/>
-    <mergeCell ref="A16:XFD16"/>
-    <mergeCell ref="A57:XFD57"/>
-    <mergeCell ref="A63:XFD63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1.GDD/工作進度文件.xlsx
+++ b/1.GDD/工作進度文件.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D15708-3B26-49C2-9813-38CADCEC518C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="專案時間表" sheetId="3" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="172">
   <si>
     <t>S</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -742,10 +743,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>場景依規格調整</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>水中狀態完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -898,10 +895,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第二關需求發出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>特效初步討論</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -910,10 +903,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>主角基本動作完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>曉芸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -938,10 +927,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>鏡頭UI完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>美術</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1013,7 +998,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="新細明體"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1024,7 +1009,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="新細明體"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1041,7 +1026,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="新細明體"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1052,7 +1037,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="新細明體"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1069,7 +1054,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="新細明體"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1080,7 +1065,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="新細明體"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1113,7 +1098,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="新細明體"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1124,7 +1109,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="新細明體"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1141,7 +1126,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="新細明體"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1155,7 +1140,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="新細明體"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1166,7 +1151,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="新細明體"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1180,7 +1165,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="新細明體"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1191,7 +1176,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="新細明體"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1214,7 +1199,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="新細明體"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1225,7 +1210,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="新細明體"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1254,7 +1239,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="新細明體"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -1283,31 +1268,76 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="新細明體"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
       </rPr>
       <t>初步整合</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>AI系統</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>初步整合討論</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角基本動作初版完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI初版完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落速度上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二關小兵需求發出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2關場景位置敲定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>場景依規格調整完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Yu Gothic"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1335,7 +1365,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1343,7 +1373,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1611,6 +1641,9 @@
     <xf numFmtId="49" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1622,9 +1655,6 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1919,68 +1949,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N175"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N179"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="33" customWidth="1"/>
-    <col min="2" max="2" width="35.625" style="32" customWidth="1"/>
-    <col min="3" max="3" width="17.125" style="33" customWidth="1"/>
-    <col min="4" max="4" width="8.625" style="33" customWidth="1"/>
-    <col min="5" max="5" width="33.625" style="32" customWidth="1"/>
-    <col min="6" max="16384" width="9.125" style="32"/>
+    <col min="1" max="1" width="13.42578125" style="33" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" style="32" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="33" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" style="32" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="18" customFormat="1">
       <c r="A1" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>92</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>93</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>60</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="38" customFormat="1">
-      <c r="A2" s="35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="39" customFormat="1">
+      <c r="A2" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="38"/>
     </row>
     <row r="3" spans="1:14" s="20" customFormat="1">
       <c r="A3" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>95</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>96</v>
       </c>
       <c r="D3" s="22" t="s">
         <v>75</v>
@@ -1988,13 +2018,13 @@
     </row>
     <row r="4" spans="1:14" s="20" customFormat="1">
       <c r="A4" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>78</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" s="22" t="s">
         <v>75</v>
@@ -2002,7 +2032,7 @@
     </row>
     <row r="5" spans="1:14" s="20" customFormat="1">
       <c r="A5" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>80</v>
@@ -2016,13 +2046,13 @@
     </row>
     <row r="6" spans="1:14" s="20" customFormat="1">
       <c r="A6" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="C6" s="21" t="s">
         <v>98</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>99</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>75</v>
@@ -2030,7 +2060,7 @@
     </row>
     <row r="7" spans="1:14" s="20" customFormat="1">
       <c r="A7" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>79</v>
@@ -2044,45 +2074,45 @@
     </row>
     <row r="8" spans="1:14" s="20" customFormat="1">
       <c r="A8" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>77</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="38" customFormat="1">
-      <c r="A9" s="35" t="s">
+    <row r="9" spans="1:14" s="39" customFormat="1">
+      <c r="A9" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="38"/>
     </row>
     <row r="10" spans="1:14" s="20" customFormat="1">
       <c r="A10" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>95</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>96</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>75</v>
@@ -2090,13 +2120,13 @@
     </row>
     <row r="11" spans="1:14" s="20" customFormat="1">
       <c r="A11" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="C11" s="21" t="s">
         <v>103</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>104</v>
       </c>
       <c r="D11" s="22" t="s">
         <v>75</v>
@@ -2104,13 +2134,13 @@
     </row>
     <row r="12" spans="1:14" s="20" customFormat="1">
       <c r="A12" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D12" s="22" t="s">
         <v>75</v>
@@ -2118,13 +2148,13 @@
     </row>
     <row r="13" spans="1:14" s="20" customFormat="1">
       <c r="A13" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>70</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D13" s="22" t="s">
         <v>75</v>
@@ -2132,13 +2162,13 @@
     </row>
     <row r="14" spans="1:14" s="20" customFormat="1">
       <c r="A14" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>95</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>96</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>75</v>
@@ -2146,13 +2176,13 @@
     </row>
     <row r="15" spans="1:14" s="20" customFormat="1">
       <c r="A15" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>159</v>
+        <v>107</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>155</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>75</v>
@@ -2160,13 +2190,13 @@
     </row>
     <row r="16" spans="1:14" s="20" customFormat="1">
       <c r="A16" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>159</v>
+        <v>108</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>155</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>75</v>
@@ -2174,10 +2204,10 @@
     </row>
     <row r="17" spans="1:14" s="20" customFormat="1">
       <c r="A17" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>58</v>
@@ -2186,33 +2216,33 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="38" customFormat="1">
-      <c r="A18" s="35" t="s">
+    <row r="18" spans="1:14" s="39" customFormat="1">
+      <c r="A18" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="38"/>
     </row>
     <row r="19" spans="1:14" s="20" customFormat="1">
       <c r="A19" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>95</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>96</v>
       </c>
       <c r="D19" s="22" t="s">
         <v>75</v>
@@ -2220,10 +2250,10 @@
     </row>
     <row r="20" spans="1:14" s="20" customFormat="1">
       <c r="A20" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C20" s="21" t="s">
         <v>81</v>
@@ -2234,10 +2264,10 @@
     </row>
     <row r="21" spans="1:14" s="20" customFormat="1">
       <c r="A21" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>81</v>
@@ -2248,13 +2278,13 @@
     </row>
     <row r="22" spans="1:14" s="20" customFormat="1">
       <c r="A22" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D22" s="22" t="s">
         <v>75</v>
@@ -2262,10 +2292,10 @@
     </row>
     <row r="23" spans="1:14" s="20" customFormat="1">
       <c r="A23" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C23" s="21" t="s">
         <v>58</v>
@@ -2276,10 +2306,10 @@
     </row>
     <row r="24" spans="1:14" s="20" customFormat="1">
       <c r="A24" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C24" s="21" t="s">
         <v>58</v>
@@ -2290,10 +2320,10 @@
     </row>
     <row r="25" spans="1:14" s="20" customFormat="1">
       <c r="A25" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C25" s="21" t="s">
         <v>58</v>
@@ -2304,10 +2334,10 @@
     </row>
     <row r="26" spans="1:14" s="20" customFormat="1">
       <c r="A26" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C26" s="21" t="s">
         <v>58</v>
@@ -2318,10 +2348,10 @@
     </row>
     <row r="27" spans="1:14" s="20" customFormat="1">
       <c r="A27" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C27" s="21" t="s">
         <v>58</v>
@@ -2332,10 +2362,10 @@
     </row>
     <row r="28" spans="1:14" s="20" customFormat="1">
       <c r="A28" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C28" s="21" t="s">
         <v>58</v>
@@ -2344,33 +2374,33 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="38" customFormat="1">
-      <c r="A29" s="35" t="s">
+    <row r="29" spans="1:14" s="39" customFormat="1">
+      <c r="A29" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="38"/>
     </row>
     <row r="30" spans="1:14" s="20" customFormat="1">
       <c r="A30" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>75</v>
@@ -2378,13 +2408,13 @@
     </row>
     <row r="31" spans="1:14" s="20" customFormat="1">
       <c r="A31" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="C31" s="21" t="s">
         <v>95</v>
-      </c>
-      <c r="B31" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>96</v>
       </c>
       <c r="D31" s="22" t="s">
         <v>75</v>
@@ -2392,13 +2422,13 @@
     </row>
     <row r="32" spans="1:14" s="20" customFormat="1">
       <c r="A32" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="22" t="s">
         <v>75</v>
@@ -2406,13 +2436,13 @@
     </row>
     <row r="33" spans="1:14" s="20" customFormat="1">
       <c r="A33" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D33" s="22" t="s">
         <v>75</v>
@@ -2420,10 +2450,10 @@
     </row>
     <row r="34" spans="1:14" s="20" customFormat="1">
       <c r="A34" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C34" s="21" t="s">
         <v>58</v>
@@ -2434,10 +2464,10 @@
     </row>
     <row r="35" spans="1:14" s="20" customFormat="1">
       <c r="A35" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B35" s="34" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C35" s="21" t="s">
         <v>58</v>
@@ -2448,10 +2478,10 @@
     </row>
     <row r="36" spans="1:14" s="20" customFormat="1">
       <c r="A36" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C36" s="21" t="s">
         <v>58</v>
@@ -2462,10 +2492,10 @@
     </row>
     <row r="37" spans="1:14" s="20" customFormat="1">
       <c r="A37" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B37" s="34" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C37" s="21" t="s">
         <v>58</v>
@@ -2476,10 +2506,10 @@
     </row>
     <row r="38" spans="1:14" s="20" customFormat="1">
       <c r="A38" s="27" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C38" s="21" t="s">
         <v>81</v>
@@ -2488,174 +2518,192 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:14" s="38" customFormat="1">
-      <c r="A39" s="35" t="s">
+    <row r="39" spans="1:14" s="39" customFormat="1">
+      <c r="A39" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="37"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="38"/>
     </row>
     <row r="40" spans="1:14" s="20" customFormat="1">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" s="20" customFormat="1">
+      <c r="A41" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" s="20" customFormat="1">
+      <c r="A42" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" s="20" customFormat="1">
+      <c r="A43" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" s="20" customFormat="1">
+      <c r="A44" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" s="20" customFormat="1">
+      <c r="A45" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" s="39" customFormat="1">
+      <c r="A46" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="37"/>
+      <c r="N46" s="38"/>
+    </row>
+    <row r="47" spans="1:14" s="20" customFormat="1">
+      <c r="A47" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B47" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="B40" s="20" t="s">
+      <c r="C47" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" s="21"/>
+    </row>
+    <row r="48" spans="1:14" s="20" customFormat="1">
+      <c r="A48" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B48" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="C40" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D40" s="21"/>
-    </row>
-    <row r="41" spans="1:14" s="20" customFormat="1">
-      <c r="A41" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="B41" s="20" t="s">
+      <c r="C48" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48" s="21"/>
+    </row>
+    <row r="49" spans="1:4" s="20" customFormat="1">
+      <c r="A49" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C49" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49" s="21"/>
+    </row>
+    <row r="50" spans="1:4" s="20" customFormat="1">
+      <c r="A50" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C50" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="21"/>
-    </row>
-    <row r="42" spans="1:14" s="20" customFormat="1">
-      <c r="A42" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="B42" s="20" t="s">
+      <c r="D50" s="21"/>
+    </row>
+    <row r="51" spans="1:4" s="20" customFormat="1">
+      <c r="A51" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="C42" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D42" s="21"/>
-    </row>
-    <row r="43" spans="1:14" s="20" customFormat="1">
-      <c r="A43" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D43" s="21"/>
-    </row>
-    <row r="44" spans="1:14" s="20" customFormat="1">
-      <c r="A44" s="26" t="s">
+      <c r="B51" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="B44" s="20" t="s">
+      <c r="C51" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" s="21"/>
+    </row>
+    <row r="52" spans="1:4" s="20" customFormat="1">
+      <c r="A52" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B52" s="20" t="s">
         <v>117</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="D44" s="21"/>
-    </row>
-    <row r="45" spans="1:14" s="20" customFormat="1">
-      <c r="A45" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="C45" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D45" s="21"/>
-    </row>
-    <row r="46" spans="1:14" s="20" customFormat="1">
-      <c r="A46" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="D46" s="21"/>
-    </row>
-    <row r="47" spans="1:14" s="20" customFormat="1">
-      <c r="A47" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="C47" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="D47" s="21"/>
-    </row>
-    <row r="48" spans="1:14" s="20" customFormat="1">
-      <c r="A48" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="C48" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="D48" s="21"/>
-    </row>
-    <row r="49" spans="1:4" s="20" customFormat="1">
-      <c r="A49" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="B49" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="C49" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="D49" s="21"/>
-    </row>
-    <row r="50" spans="1:4" s="20" customFormat="1">
-      <c r="A50" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C50" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="D50" s="21"/>
-    </row>
-    <row r="51" spans="1:4" s="20" customFormat="1">
-      <c r="A51" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D51" s="21"/>
-    </row>
-    <row r="52" spans="1:4" s="20" customFormat="1">
-      <c r="A52" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>123</v>
       </c>
       <c r="C52" s="21" t="s">
         <v>81</v>
@@ -2663,275 +2711,271 @@
       <c r="D52" s="21"/>
     </row>
     <row r="53" spans="1:4" s="20" customFormat="1">
-      <c r="A53" s="23" t="s">
-        <v>97</v>
+      <c r="A53" s="19" t="s">
+        <v>101</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="D53" s="21"/>
     </row>
     <row r="54" spans="1:4" s="20" customFormat="1">
-      <c r="A54" s="23" t="s">
-        <v>97</v>
+      <c r="A54" s="19" t="s">
+        <v>94</v>
       </c>
       <c r="B54" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="20" customFormat="1">
+      <c r="A55" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D55" s="21"/>
+    </row>
+    <row r="56" spans="1:4" s="20" customFormat="1">
+      <c r="A56" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B56" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D56" s="21"/>
+    </row>
+    <row r="57" spans="1:4" s="20" customFormat="1">
+      <c r="A57" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B57" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="C54" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="D54" s="21"/>
-    </row>
-    <row r="55" spans="1:4" s="20" customFormat="1">
-      <c r="A55" s="23" t="s">
+      <c r="C57" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D57" s="21"/>
+    </row>
+    <row r="58" spans="1:4" s="20" customFormat="1">
+      <c r="A58" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B58" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="B55" s="20" t="s">
+      <c r="C58" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D58" s="21"/>
+    </row>
+    <row r="59" spans="1:4" s="20" customFormat="1">
+      <c r="A59" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B59" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C59" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D59" s="21"/>
+    </row>
+    <row r="60" spans="1:4" s="20" customFormat="1">
+      <c r="A60" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="D55" s="21"/>
-    </row>
-    <row r="56" spans="1:4" s="20" customFormat="1">
-      <c r="A56" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="B56" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="C56" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D56" s="21"/>
-    </row>
-    <row r="57" spans="1:4" s="20" customFormat="1">
-      <c r="A57" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="B57" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="C57" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D57" s="21"/>
-    </row>
-    <row r="58" spans="1:4" s="20" customFormat="1">
-      <c r="A58" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="B58" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="C58" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D58" s="21"/>
-    </row>
-    <row r="59" spans="1:4" s="20" customFormat="1">
-      <c r="A59" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="B59" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C59" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D59" s="21"/>
-    </row>
-    <row r="60" spans="1:4" s="20" customFormat="1">
-      <c r="A60" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="B60" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C60" s="21" t="s">
-        <v>58</v>
-      </c>
       <c r="D60" s="21"/>
     </row>
     <row r="61" spans="1:4" s="20" customFormat="1">
-      <c r="A61" s="24" t="s">
-        <v>100</v>
+      <c r="A61" s="23" t="s">
+        <v>96</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>127</v>
+        <v>171</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="D61" s="21"/>
     </row>
     <row r="62" spans="1:4" s="20" customFormat="1">
-      <c r="A62" s="24" t="s">
-        <v>134</v>
+      <c r="A62" s="23" t="s">
+        <v>96</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="D62" s="21"/>
     </row>
     <row r="63" spans="1:4" s="20" customFormat="1">
-      <c r="A63" s="24" t="s">
-        <v>100</v>
+      <c r="A63" s="23" t="s">
+        <v>96</v>
       </c>
       <c r="B63" s="20" t="s">
         <v>167</v>
       </c>
       <c r="C63" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="D63" s="21"/>
+    </row>
+    <row r="64" spans="1:4" s="20" customFormat="1">
+      <c r="A64" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D64" s="21"/>
+    </row>
+    <row r="65" spans="1:14" s="20" customFormat="1">
+      <c r="A65" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B65" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="C65" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D63" s="21"/>
-    </row>
-    <row r="64" spans="1:4" s="20" customFormat="1">
-      <c r="A64" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="B64" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="C64" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="D64" s="21"/>
-    </row>
-    <row r="65" spans="1:14" s="20" customFormat="1">
-      <c r="A65" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="B65" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="C65" s="21" t="s">
-        <v>81</v>
-      </c>
       <c r="D65" s="21"/>
     </row>
-    <row r="66" spans="1:14" s="38" customFormat="1">
-      <c r="A66" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="B66" s="36"/>
-      <c r="C66" s="36"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="36"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="36"/>
-      <c r="J66" s="36"/>
-      <c r="K66" s="36"/>
-      <c r="L66" s="36"/>
-      <c r="M66" s="36"/>
-      <c r="N66" s="37"/>
+    <row r="66" spans="1:14" s="20" customFormat="1">
+      <c r="A66" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B66" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="67" spans="1:14" s="20" customFormat="1">
-      <c r="A67" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B67" s="20" t="s">
-        <v>135</v>
+      <c r="A67" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B67" s="34" t="s">
+        <v>168</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="D67" s="21"/>
+        <v>58</v>
+      </c>
+      <c r="D67" s="22" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="68" spans="1:14" s="20" customFormat="1">
-      <c r="A68" s="19" t="s">
-        <v>102</v>
+      <c r="A68" s="24" t="s">
+        <v>99</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>136</v>
+        <v>69</v>
       </c>
       <c r="C68" s="21" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="D68" s="21"/>
     </row>
     <row r="69" spans="1:14" s="20" customFormat="1">
-      <c r="A69" s="19" t="s">
-        <v>102</v>
+      <c r="A69" s="24" t="s">
+        <v>99</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="D69" s="21"/>
+        <v>58</v>
+      </c>
+      <c r="D69" s="22" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="70" spans="1:14" s="20" customFormat="1">
-      <c r="A70" s="23" t="s">
-        <v>97</v>
+      <c r="A70" s="24" t="s">
+        <v>99</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="D70" s="21"/>
     </row>
     <row r="71" spans="1:14" s="20" customFormat="1">
       <c r="A71" s="24" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>138</v>
+        <v>71</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="D71" s="21"/>
     </row>
     <row r="72" spans="1:14" s="20" customFormat="1">
-      <c r="A72" s="27" t="s">
-        <v>128</v>
+      <c r="A72" s="24" t="s">
+        <v>99</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="D72" s="21"/>
     </row>
-    <row r="73" spans="1:14" s="38" customFormat="1">
-      <c r="A73" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B73" s="36"/>
-      <c r="C73" s="36"/>
-      <c r="D73" s="36"/>
-      <c r="E73" s="36"/>
-      <c r="F73" s="36"/>
-      <c r="G73" s="36"/>
-      <c r="H73" s="36"/>
-      <c r="I73" s="36"/>
-      <c r="J73" s="36"/>
-      <c r="K73" s="36"/>
-      <c r="L73" s="36"/>
-      <c r="M73" s="36"/>
-      <c r="N73" s="37"/>
+    <row r="73" spans="1:14" s="20" customFormat="1">
+      <c r="A73" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D73" s="21"/>
     </row>
     <row r="74" spans="1:14" s="20" customFormat="1">
-      <c r="A74" s="25" t="s">
-        <v>112</v>
+      <c r="A74" s="27" t="s">
+        <v>125</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="C74" s="21" t="s">
         <v>81</v>
@@ -2939,65 +2983,65 @@
       <c r="D74" s="21"/>
     </row>
     <row r="75" spans="1:14" s="20" customFormat="1">
-      <c r="A75" s="26" t="s">
-        <v>116</v>
+      <c r="A75" s="27" t="s">
+        <v>125</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="C75" s="21" t="s">
         <v>81</v>
       </c>
       <c r="D75" s="21"/>
     </row>
-    <row r="76" spans="1:14" s="20" customFormat="1">
-      <c r="A76" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B76" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="C76" s="21" t="s">
+    <row r="76" spans="1:14" s="39" customFormat="1">
+      <c r="A76" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B76" s="37"/>
+      <c r="C76" s="37"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="37"/>
+      <c r="K76" s="37"/>
+      <c r="L76" s="37"/>
+      <c r="M76" s="37"/>
+      <c r="N76" s="38"/>
+    </row>
+    <row r="77" spans="1:14" s="20" customFormat="1">
+      <c r="A77" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C77" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="D76" s="21"/>
-    </row>
-    <row r="77" spans="1:14" s="20" customFormat="1">
-      <c r="A77" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="B77" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C77" s="21" t="s">
-        <v>58</v>
-      </c>
       <c r="D77" s="21"/>
     </row>
-    <row r="78" spans="1:14" s="38" customFormat="1">
-      <c r="A78" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="B78" s="36"/>
-      <c r="C78" s="36"/>
-      <c r="D78" s="36"/>
-      <c r="E78" s="36"/>
-      <c r="F78" s="36"/>
-      <c r="G78" s="36"/>
-      <c r="H78" s="36"/>
-      <c r="I78" s="36"/>
-      <c r="J78" s="36"/>
-      <c r="K78" s="36"/>
-      <c r="L78" s="36"/>
-      <c r="M78" s="36"/>
-      <c r="N78" s="37"/>
+    <row r="78" spans="1:14" s="20" customFormat="1">
+      <c r="A78" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B78" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C78" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D78" s="21"/>
     </row>
     <row r="79" spans="1:14" s="20" customFormat="1">
       <c r="A79" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="C79" s="21" t="s">
         <v>81</v>
@@ -3005,161 +3049,195 @@
       <c r="D79" s="21"/>
     </row>
     <row r="80" spans="1:14" s="20" customFormat="1">
-      <c r="A80" s="19" t="s">
-        <v>102</v>
+      <c r="A80" s="24" t="s">
+        <v>130</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c r="C80" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D80" s="21"/>
+    </row>
+    <row r="81" spans="1:14" s="39" customFormat="1">
+      <c r="A81" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B81" s="37"/>
+      <c r="C81" s="37"/>
+      <c r="D81" s="37"/>
+      <c r="E81" s="37"/>
+      <c r="F81" s="37"/>
+      <c r="G81" s="37"/>
+      <c r="H81" s="37"/>
+      <c r="I81" s="37"/>
+      <c r="J81" s="37"/>
+      <c r="K81" s="37"/>
+      <c r="L81" s="37"/>
+      <c r="M81" s="37"/>
+      <c r="N81" s="38"/>
+    </row>
+    <row r="82" spans="1:14" s="20" customFormat="1">
+      <c r="A82" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C82" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D82" s="21"/>
+    </row>
+    <row r="83" spans="1:14" s="20" customFormat="1">
+      <c r="A83" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B83" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C83" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D83" s="21"/>
+    </row>
+    <row r="84" spans="1:14" s="20" customFormat="1">
+      <c r="A84" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D80" s="21"/>
-    </row>
-    <row r="81" spans="1:14" s="20" customFormat="1">
-      <c r="A81" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="B81" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="C81" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="D81" s="21"/>
-    </row>
-    <row r="82" spans="1:14" s="20" customFormat="1">
-      <c r="A82" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="B82" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="C82" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="D82" s="21"/>
-    </row>
-    <row r="83" spans="1:14" s="38" customFormat="1">
-      <c r="A83" s="35" t="s">
+      <c r="B84" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D84" s="21"/>
+    </row>
+    <row r="85" spans="1:14" s="20" customFormat="1">
+      <c r="A85" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D85" s="21"/>
+    </row>
+    <row r="86" spans="1:14" s="20" customFormat="1">
+      <c r="A86" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="B86" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C86" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D86" s="21"/>
+    </row>
+    <row r="87" spans="1:14" s="39" customFormat="1">
+      <c r="A87" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="B83" s="36"/>
-      <c r="C83" s="36"/>
-      <c r="D83" s="36"/>
-      <c r="E83" s="36"/>
-      <c r="F83" s="36"/>
-      <c r="G83" s="36"/>
-      <c r="H83" s="36"/>
-      <c r="I83" s="36"/>
-      <c r="J83" s="36"/>
-      <c r="K83" s="36"/>
-      <c r="L83" s="36"/>
-      <c r="M83" s="36"/>
-      <c r="N83" s="37"/>
-    </row>
-    <row r="84" spans="1:14" s="20" customFormat="1">
-      <c r="A84" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="B84" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C84" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="D84" s="21"/>
-    </row>
-    <row r="85" spans="1:14" s="38" customFormat="1">
-      <c r="A85" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="B85" s="36"/>
-      <c r="C85" s="36"/>
-      <c r="D85" s="36"/>
-      <c r="E85" s="36"/>
-      <c r="F85" s="36"/>
-      <c r="G85" s="36"/>
-      <c r="H85" s="36"/>
-      <c r="I85" s="36"/>
-      <c r="J85" s="36"/>
-      <c r="K85" s="36"/>
-      <c r="L85" s="36"/>
-      <c r="M85" s="36"/>
-      <c r="N85" s="37"/>
-    </row>
-    <row r="86" spans="1:14" s="20" customFormat="1">
-      <c r="A86" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="B86" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="C86" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D86" s="21"/>
-    </row>
-    <row r="87" spans="1:14" s="38" customFormat="1">
-      <c r="A87" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="B87" s="36"/>
-      <c r="C87" s="36"/>
-      <c r="D87" s="36"/>
-      <c r="E87" s="36"/>
-      <c r="F87" s="36"/>
-      <c r="G87" s="36"/>
-      <c r="H87" s="36"/>
-      <c r="I87" s="36"/>
-      <c r="J87" s="36"/>
-      <c r="K87" s="36"/>
-      <c r="L87" s="36"/>
-      <c r="M87" s="36"/>
-      <c r="N87" s="37"/>
+      <c r="B87" s="37"/>
+      <c r="C87" s="37"/>
+      <c r="D87" s="37"/>
+      <c r="E87" s="37"/>
+      <c r="F87" s="37"/>
+      <c r="G87" s="37"/>
+      <c r="H87" s="37"/>
+      <c r="I87" s="37"/>
+      <c r="J87" s="37"/>
+      <c r="K87" s="37"/>
+      <c r="L87" s="37"/>
+      <c r="M87" s="37"/>
+      <c r="N87" s="38"/>
     </row>
     <row r="88" spans="1:14" s="20" customFormat="1">
       <c r="A88" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B88" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C88" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D88" s="21"/>
+    </row>
+    <row r="89" spans="1:14" s="39" customFormat="1">
+      <c r="A89" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B89" s="37"/>
+      <c r="C89" s="37"/>
+      <c r="D89" s="37"/>
+      <c r="E89" s="37"/>
+      <c r="F89" s="37"/>
+      <c r="G89" s="37"/>
+      <c r="H89" s="37"/>
+      <c r="I89" s="37"/>
+      <c r="J89" s="37"/>
+      <c r="K89" s="37"/>
+      <c r="L89" s="37"/>
+      <c r="M89" s="37"/>
+      <c r="N89" s="38"/>
+    </row>
+    <row r="90" spans="1:14" s="20" customFormat="1">
+      <c r="A90" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B90" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D90" s="21"/>
+    </row>
+    <row r="91" spans="1:14" s="39" customFormat="1">
+      <c r="A91" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B91" s="37"/>
+      <c r="C91" s="37"/>
+      <c r="D91" s="37"/>
+      <c r="E91" s="37"/>
+      <c r="F91" s="37"/>
+      <c r="G91" s="37"/>
+      <c r="H91" s="37"/>
+      <c r="I91" s="37"/>
+      <c r="J91" s="37"/>
+      <c r="K91" s="37"/>
+      <c r="L91" s="37"/>
+      <c r="M91" s="37"/>
+      <c r="N91" s="38"/>
+    </row>
+    <row r="92" spans="1:14" s="20" customFormat="1">
+      <c r="A92" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B92" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D92" s="21"/>
+    </row>
+    <row r="93" spans="1:14" s="20" customFormat="1">
+      <c r="A93" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B93" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C93" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="B88" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C88" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D88" s="21"/>
-    </row>
-    <row r="89" spans="1:14" s="20" customFormat="1">
-      <c r="A89" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="B89" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C89" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="D89" s="21"/>
-    </row>
-    <row r="90" spans="1:14" s="20" customFormat="1">
-      <c r="A90" s="21"/>
-      <c r="C90" s="21"/>
-      <c r="D90" s="21"/>
-    </row>
-    <row r="91" spans="1:14" s="20" customFormat="1">
-      <c r="A91" s="21"/>
-      <c r="C91" s="21"/>
-      <c r="D91" s="21"/>
-    </row>
-    <row r="92" spans="1:14" s="20" customFormat="1">
-      <c r="A92" s="21"/>
-      <c r="C92" s="21"/>
-      <c r="D92" s="21"/>
-    </row>
-    <row r="93" spans="1:14" s="20" customFormat="1">
-      <c r="A93" s="21"/>
-      <c r="C93" s="21"/>
       <c r="D93" s="21"/>
     </row>
     <row r="94" spans="1:14" s="20" customFormat="1">
@@ -3177,140 +3255,100 @@
       <c r="C96" s="21"/>
       <c r="D96" s="21"/>
     </row>
-    <row r="97" spans="1:13" s="20" customFormat="1">
+    <row r="97" spans="1:4" s="20" customFormat="1">
       <c r="A97" s="21"/>
       <c r="C97" s="21"/>
       <c r="D97" s="21"/>
     </row>
-    <row r="98" spans="1:13" s="20" customFormat="1">
+    <row r="98" spans="1:4" s="20" customFormat="1">
       <c r="A98" s="21"/>
       <c r="C98" s="21"/>
       <c r="D98" s="21"/>
     </row>
-    <row r="99" spans="1:13" s="20" customFormat="1">
+    <row r="99" spans="1:4" s="20" customFormat="1">
       <c r="A99" s="21"/>
       <c r="C99" s="21"/>
       <c r="D99" s="21"/>
     </row>
-    <row r="100" spans="1:13" s="20" customFormat="1">
+    <row r="100" spans="1:4" s="20" customFormat="1">
       <c r="A100" s="21"/>
       <c r="C100" s="21"/>
       <c r="D100" s="21"/>
     </row>
-    <row r="101" spans="1:13" s="20" customFormat="1">
+    <row r="101" spans="1:4" s="20" customFormat="1">
       <c r="A101" s="21"/>
       <c r="C101" s="21"/>
       <c r="D101" s="21"/>
     </row>
-    <row r="102" spans="1:13" s="20" customFormat="1">
+    <row r="102" spans="1:4" s="20" customFormat="1">
       <c r="A102" s="21"/>
       <c r="C102" s="21"/>
       <c r="D102" s="21"/>
     </row>
-    <row r="103" spans="1:13" s="20" customFormat="1">
+    <row r="103" spans="1:4" s="20" customFormat="1">
       <c r="A103" s="21"/>
       <c r="C103" s="21"/>
       <c r="D103" s="21"/>
     </row>
-    <row r="104" spans="1:13" s="20" customFormat="1">
+    <row r="104" spans="1:4" s="20" customFormat="1">
       <c r="A104" s="21"/>
       <c r="C104" s="21"/>
       <c r="D104" s="21"/>
     </row>
-    <row r="105" spans="1:13" s="20" customFormat="1">
+    <row r="105" spans="1:4" s="20" customFormat="1">
       <c r="A105" s="21"/>
       <c r="C105" s="21"/>
       <c r="D105" s="21"/>
     </row>
-    <row r="106" spans="1:13" s="20" customFormat="1">
+    <row r="106" spans="1:4" s="20" customFormat="1">
       <c r="A106" s="21"/>
       <c r="C106" s="21"/>
       <c r="D106" s="21"/>
     </row>
-    <row r="107" spans="1:13" s="20" customFormat="1">
+    <row r="107" spans="1:4" s="20" customFormat="1">
       <c r="A107" s="21"/>
       <c r="C107" s="21"/>
       <c r="D107" s="21"/>
     </row>
-    <row r="108" spans="1:13" s="20" customFormat="1">
+    <row r="108" spans="1:4" s="20" customFormat="1">
       <c r="A108" s="21"/>
       <c r="C108" s="21"/>
       <c r="D108" s="21"/>
     </row>
-    <row r="109" spans="1:13" s="20" customFormat="1">
+    <row r="109" spans="1:4" s="20" customFormat="1">
       <c r="A109" s="21"/>
       <c r="C109" s="21"/>
       <c r="D109" s="21"/>
     </row>
-    <row r="110" spans="1:13" s="20" customFormat="1">
+    <row r="110" spans="1:4" s="20" customFormat="1">
       <c r="A110" s="21"/>
       <c r="C110" s="21"/>
       <c r="D110" s="21"/>
     </row>
-    <row r="111" spans="1:13" s="20" customFormat="1">
+    <row r="111" spans="1:4" s="20" customFormat="1">
       <c r="A111" s="21"/>
       <c r="C111" s="21"/>
       <c r="D111" s="21"/>
     </row>
-    <row r="112" spans="1:13">
-      <c r="A112" s="28"/>
-      <c r="B112" s="29"/>
-      <c r="C112" s="28"/>
-      <c r="D112" s="28"/>
-      <c r="E112" s="30"/>
-      <c r="F112" s="30"/>
-      <c r="G112" s="30"/>
-      <c r="H112" s="30"/>
-      <c r="I112" s="30"/>
-      <c r="J112" s="30"/>
-      <c r="K112" s="30"/>
-      <c r="L112" s="30"/>
-      <c r="M112" s="31"/>
-    </row>
-    <row r="113" spans="1:13">
-      <c r="A113" s="28"/>
-      <c r="B113" s="29"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
-      <c r="E113" s="30"/>
-      <c r="F113" s="30"/>
-      <c r="G113" s="30"/>
-      <c r="H113" s="30"/>
-      <c r="I113" s="30"/>
-      <c r="J113" s="30"/>
-      <c r="K113" s="30"/>
-      <c r="L113" s="30"/>
-      <c r="M113" s="31"/>
-    </row>
-    <row r="114" spans="1:13">
-      <c r="A114" s="28"/>
-      <c r="B114" s="29"/>
-      <c r="C114" s="28"/>
-      <c r="D114" s="28"/>
-      <c r="E114" s="30"/>
-      <c r="F114" s="30"/>
-      <c r="G114" s="30"/>
-      <c r="H114" s="30"/>
-      <c r="I114" s="30"/>
-      <c r="J114" s="30"/>
-      <c r="K114" s="30"/>
-      <c r="L114" s="30"/>
-      <c r="M114" s="31"/>
-    </row>
-    <row r="115" spans="1:13">
-      <c r="A115" s="28"/>
-      <c r="B115" s="29"/>
-      <c r="C115" s="28"/>
-      <c r="D115" s="28"/>
-      <c r="E115" s="30"/>
-      <c r="F115" s="30"/>
-      <c r="G115" s="30"/>
-      <c r="H115" s="30"/>
-      <c r="I115" s="30"/>
-      <c r="J115" s="30"/>
-      <c r="K115" s="30"/>
-      <c r="L115" s="30"/>
-      <c r="M115" s="31"/>
+    <row r="112" spans="1:4" s="20" customFormat="1">
+      <c r="A112" s="21"/>
+      <c r="C112" s="21"/>
+      <c r="D112" s="21"/>
+    </row>
+    <row r="113" spans="1:13" s="20" customFormat="1">
+      <c r="A113" s="21"/>
+      <c r="C113" s="21"/>
+      <c r="D113" s="21"/>
+    </row>
+    <row r="114" spans="1:13" s="20" customFormat="1">
+      <c r="A114" s="21"/>
+      <c r="C114" s="21"/>
+      <c r="D114" s="21"/>
+    </row>
+    <row r="115" spans="1:13" s="20" customFormat="1">
+      <c r="A115" s="21"/>
+      <c r="C115" s="21"/>
+      <c r="D115" s="21"/>
     </row>
     <row r="116" spans="1:13">
       <c r="A116" s="28"/>
@@ -3387,16 +3425,72 @@
       <c r="L120" s="30"/>
       <c r="M120" s="31"/>
     </row>
-    <row r="121" spans="1:13" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15" customHeight="1"/>
-    <row r="133" ht="15" customHeight="1"/>
-    <row r="136" ht="15" customHeight="1"/>
+    <row r="121" spans="1:13">
+      <c r="A121" s="28"/>
+      <c r="B121" s="29"/>
+      <c r="C121" s="28"/>
+      <c r="D121" s="28"/>
+      <c r="E121" s="30"/>
+      <c r="F121" s="30"/>
+      <c r="G121" s="30"/>
+      <c r="H121" s="30"/>
+      <c r="I121" s="30"/>
+      <c r="J121" s="30"/>
+      <c r="K121" s="30"/>
+      <c r="L121" s="30"/>
+      <c r="M121" s="31"/>
+    </row>
+    <row r="122" spans="1:13">
+      <c r="A122" s="28"/>
+      <c r="B122" s="29"/>
+      <c r="C122" s="28"/>
+      <c r="D122" s="28"/>
+      <c r="E122" s="30"/>
+      <c r="F122" s="30"/>
+      <c r="G122" s="30"/>
+      <c r="H122" s="30"/>
+      <c r="I122" s="30"/>
+      <c r="J122" s="30"/>
+      <c r="K122" s="30"/>
+      <c r="L122" s="30"/>
+      <c r="M122" s="31"/>
+    </row>
+    <row r="123" spans="1:13">
+      <c r="A123" s="28"/>
+      <c r="B123" s="29"/>
+      <c r="C123" s="28"/>
+      <c r="D123" s="28"/>
+      <c r="E123" s="30"/>
+      <c r="F123" s="30"/>
+      <c r="G123" s="30"/>
+      <c r="H123" s="30"/>
+      <c r="I123" s="30"/>
+      <c r="J123" s="30"/>
+      <c r="K123" s="30"/>
+      <c r="L123" s="30"/>
+      <c r="M123" s="31"/>
+    </row>
+    <row r="124" spans="1:13">
+      <c r="A124" s="28"/>
+      <c r="B124" s="29"/>
+      <c r="C124" s="28"/>
+      <c r="D124" s="28"/>
+      <c r="E124" s="30"/>
+      <c r="F124" s="30"/>
+      <c r="G124" s="30"/>
+      <c r="H124" s="30"/>
+      <c r="I124" s="30"/>
+      <c r="J124" s="30"/>
+      <c r="K124" s="30"/>
+      <c r="L124" s="30"/>
+      <c r="M124" s="31"/>
+    </row>
+    <row r="125" spans="1:13" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15" customHeight="1"/>
+    <row r="137" ht="15" customHeight="1"/>
     <row r="140" ht="15" customHeight="1"/>
-    <row r="145" ht="15" customHeight="1"/>
+    <row r="144" ht="15" customHeight="1"/>
     <row r="149" ht="15" customHeight="1"/>
-    <row r="150" ht="15" customHeight="1"/>
-    <row r="151" ht="15" customHeight="1"/>
-    <row r="152" ht="15" customHeight="1"/>
     <row r="153" ht="15" customHeight="1"/>
     <row r="154" ht="15" customHeight="1"/>
     <row r="155" ht="15" customHeight="1"/>
@@ -3405,21 +3499,25 @@
     <row r="158" ht="15" customHeight="1"/>
     <row r="159" ht="15" customHeight="1"/>
     <row r="160" ht="15" customHeight="1"/>
+    <row r="161" ht="15" customHeight="1"/>
     <row r="162" ht="15" customHeight="1"/>
-    <row r="175" ht="15" customHeight="1"/>
+    <row r="163" ht="15" customHeight="1"/>
+    <row r="164" ht="15" customHeight="1"/>
+    <row r="166" ht="15" customHeight="1"/>
+    <row r="179" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A91:XFD91"/>
     <mergeCell ref="A87:XFD87"/>
-    <mergeCell ref="A83:XFD83"/>
     <mergeCell ref="A39:XFD39"/>
     <mergeCell ref="A29:XFD29"/>
     <mergeCell ref="A2:XFD2"/>
-    <mergeCell ref="A78:XFD78"/>
-    <mergeCell ref="A85:XFD85"/>
+    <mergeCell ref="A81:XFD81"/>
+    <mergeCell ref="A89:XFD89"/>
     <mergeCell ref="A9:XFD9"/>
     <mergeCell ref="A18:XFD18"/>
-    <mergeCell ref="A66:XFD66"/>
-    <mergeCell ref="A73:XFD73"/>
+    <mergeCell ref="A46:XFD46"/>
+    <mergeCell ref="A76:XFD76"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3428,21 +3526,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.125" style="3" customWidth="1"/>
-    <col min="3" max="4" width="8.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="85.75" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9.125" style="3"/>
+    <col min="1" max="1" width="35.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="3" customWidth="1"/>
+    <col min="3" max="4" width="8.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="85.7109375" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75">
